--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ от 28.05.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ от 28.05.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-30-1-500-4 АКВА МЯТАЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7CD6FB-041B-4B88-95E1-55E8FC2884D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C0E2B-6042-4DDF-88C7-D8B2667B7A6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3651,12 +3651,6 @@
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3701,23 +3695,50 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3726,6 +3747,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3735,77 +3804,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3906,40 +3936,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3959,84 +4037,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4067,34 +4067,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6762,25 +6762,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="508" t="s">
+      <c r="A2" s="506" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="510"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="508"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6791,45 +6791,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="512" t="s">
+      <c r="A4" s="510" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="513"/>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="514" t="s">
+      <c r="A5" s="512" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="515"/>
-      <c r="C5" s="515"/>
-      <c r="D5" s="515"/>
-      <c r="E5" s="516"/>
+      <c r="B5" s="513"/>
+      <c r="C5" s="513"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="514"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="507" t="s">
+      <c r="A7" s="505" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
+      <c r="B7" s="509"/>
+      <c r="C7" s="509"/>
+      <c r="D7" s="509"/>
+      <c r="E7" s="509"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="517"/>
-      <c r="B8" s="518"/>
-      <c r="C8" s="518"/>
-      <c r="D8" s="518"/>
-      <c r="E8" s="519"/>
+      <c r="A8" s="515"/>
+      <c r="B8" s="516"/>
+      <c r="C8" s="516"/>
+      <c r="D8" s="516"/>
+      <c r="E8" s="517"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="507" t="s">
+      <c r="A10" s="505" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="507"/>
+      <c r="B10" s="505"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6840,33 +6840,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="505"/>
-      <c r="B11" s="506"/>
+      <c r="A11" s="503"/>
+      <c r="B11" s="504"/>
       <c r="D11" s="369">
         <v>43979</v>
       </c>
-      <c r="F11" s="502" t="s">
+      <c r="F11" s="518" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="519" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="503"/>
+      <c r="K11" s="519"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="502" t="s">
+      <c r="F12" s="518" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="519" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="503"/>
+      <c r="K12" s="519"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6884,16 +6884,16 @@
       <c r="E13" s="471" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="F13" s="518" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
+      <c r="G13" s="518"/>
+      <c r="H13" s="518"/>
+      <c r="I13" s="518"/>
+      <c r="J13" s="519" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="503"/>
+      <c r="K13" s="519"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7148,11 +7148,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="504" t="s">
+      <c r="A29" s="502" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="504"/>
-      <c r="C29" s="504"/>
+      <c r="B29" s="502"/>
+      <c r="C29" s="502"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7161,6 +7161,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7170,12 +7176,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7229,24 +7229,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -7257,19 +7257,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7280,9 +7280,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7301,22 +7301,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7327,22 +7327,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7353,27 +7353,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7751,22 +7751,17 @@
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
+      <c r="P22" s="568"/>
+      <c r="Q22" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7783,6 +7778,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7848,47 +7848,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="649"/>
+      <c r="Q2" s="649"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7899,9 +7899,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7920,22 +7920,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7946,22 +7946,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7972,27 +7972,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8321,12 +8321,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="647" t="s">
+      <c r="B18" s="646" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="648"/>
-      <c r="D18" s="648"/>
-      <c r="E18" s="649"/>
+      <c r="C18" s="647"/>
+      <c r="D18" s="647"/>
+      <c r="E18" s="648"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8380,26 +8380,17 @@
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
+      <c r="P22" s="568"/>
+      <c r="Q22" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8413,6 +8404,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8487,24 +8487,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8515,19 +8515,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8538,9 +8538,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8559,22 +8559,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8585,22 +8585,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8611,27 +8611,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8953,22 +8953,17 @@
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="568"/>
+      <c r="Q20" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8985,6 +8980,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9041,47 +9041,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="652">
+      <c r="J2" s="623"/>
+      <c r="K2" s="651">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="653"/>
+      <c r="L2" s="652"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="651"/>
-      <c r="Q2" s="651"/>
+      <c r="P2" s="655"/>
+      <c r="Q2" s="655"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="654"/>
-      <c r="L3" s="655"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="653"/>
+      <c r="L3" s="654"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9092,9 +9092,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9113,22 +9113,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9139,22 +9139,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9165,27 +9165,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9458,22 +9458,17 @@
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
+      <c r="P19" s="568"/>
+      <c r="Q19" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9490,6 +9485,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9518,8 +9518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10078,31 +10078,31 @@
         <v>16800000</v>
       </c>
       <c r="B21" s="422">
-        <v>43759</v>
+        <v>43983</v>
       </c>
       <c r="C21" s="423">
-        <v>43765</v>
+        <v>43985</v>
       </c>
       <c r="D21" s="422">
-        <v>43769</v>
+        <v>43993</v>
       </c>
       <c r="E21" s="424">
-        <v>948096</v>
+        <v>436272</v>
       </c>
       <c r="F21" s="424">
-        <v>1031915</v>
+        <v>462924</v>
       </c>
       <c r="G21" s="425">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+        <v>2.7555E-2</v>
       </c>
       <c r="H21" s="426">
         <f>A21-F21</f>
-        <v>15768085</v>
+        <v>16337076</v>
       </c>
       <c r="I21" s="427">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
+        <v>0.972445</v>
       </c>
       <c r="J21" s="489"/>
       <c r="K21" s="402"/>
@@ -10121,11 +10121,11 @@
       </c>
       <c r="H22" s="432">
         <f>H21-F22</f>
-        <v>15768085</v>
+        <v>16337076</v>
       </c>
       <c r="I22" s="433">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
+        <v>0.972445</v>
       </c>
       <c r="J22" s="490"/>
       <c r="K22" s="383"/>
@@ -10266,23 +10266,23 @@
       <c r="D32" s="454"/>
       <c r="E32" s="500">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
+        <v>436272</v>
       </c>
       <c r="F32" s="501">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
+        <v>462924</v>
       </c>
       <c r="G32" s="455">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
+        <v>2.7555E-2</v>
       </c>
       <c r="H32" s="456">
         <f>A21-F32</f>
-        <v>15768085</v>
+        <v>16337076</v>
       </c>
       <c r="I32" s="457">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
+        <v>0.972445</v>
       </c>
       <c r="J32" s="495"/>
       <c r="K32" s="458"/>
@@ -10301,12 +10301,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="525" t="s">
+      <c r="A36" s="522" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="525"/>
-      <c r="C36" s="525"/>
-      <c r="D36" s="525"/>
+      <c r="B36" s="522"/>
+      <c r="C36" s="522"/>
+      <c r="D36" s="522"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10315,10 +10315,10 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="526" t="s">
+      <c r="A37" s="523" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="526"/>
+      <c r="B37" s="523"/>
       <c r="C37" s="459" t="s">
         <v>130</v>
       </c>
@@ -10333,18 +10333,18 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="527">
+      <c r="A38" s="524">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="528"/>
+        <v>16337076</v>
+      </c>
+      <c r="B38" s="525"/>
       <c r="C38" s="460">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
+        <v>0.972445</v>
       </c>
       <c r="D38" s="461">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
+        <v>121.55562499999999</v>
       </c>
       <c r="E38" s="462" t="s">
         <v>132</v>
@@ -10399,8 +10399,8 @@
       <c r="F42" s="464"/>
       <c r="G42" s="464"/>
       <c r="H42" s="464"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="521"/>
+      <c r="I42" s="526"/>
+      <c r="J42" s="527"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="465"/>
@@ -10494,9 +10494,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="523"/>
-      <c r="C52" s="523"/>
-      <c r="D52" s="524"/>
+      <c r="B52" s="520"/>
+      <c r="C52" s="520"/>
+      <c r="D52" s="521"/>
       <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10513,8 +10513,8 @@
       <c r="F53" s="464"/>
       <c r="G53" s="464"/>
       <c r="H53" s="464"/>
-      <c r="I53" s="520"/>
-      <c r="J53" s="521"/>
+      <c r="I53" s="526"/>
+      <c r="J53" s="527"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="465"/>
@@ -10525,8 +10525,8 @@
       <c r="F54" s="412"/>
       <c r="G54" s="412"/>
       <c r="H54" s="466"/>
-      <c r="I54" s="522"/>
-      <c r="J54" s="522"/>
+      <c r="I54" s="528"/>
+      <c r="J54" s="528"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="465"/>
@@ -10537,8 +10537,8 @@
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="402"/>
-      <c r="I55" s="522"/>
-      <c r="J55" s="522"/>
+      <c r="I55" s="528"/>
+      <c r="J55" s="528"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10551,25 +10551,25 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="520"/>
-      <c r="C61" s="521"/>
+      <c r="B61" s="526"/>
+      <c r="C61" s="527"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="520"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="526"/>
+      <c r="C68" s="527"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10587,7 +10587,7 @@
   </sheetPr>
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H28" sqref="H28:J29"/>
     </sheetView>
   </sheetViews>
@@ -10655,47 +10655,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="553" t="s">
+      <c r="A11" s="530" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="553"/>
-      <c r="C11" s="553"/>
-      <c r="D11" s="553"/>
-      <c r="E11" s="553"/>
-      <c r="F11" s="553"/>
-      <c r="G11" s="553"/>
-      <c r="H11" s="553"/>
-      <c r="I11" s="553"/>
-      <c r="J11" s="553"/>
+      <c r="B11" s="530"/>
+      <c r="C11" s="530"/>
+      <c r="D11" s="530"/>
+      <c r="E11" s="530"/>
+      <c r="F11" s="530"/>
+      <c r="G11" s="530"/>
+      <c r="H11" s="530"/>
+      <c r="I11" s="530"/>
+      <c r="J11" s="530"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="552" t="s">
+      <c r="A12" s="529" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="552"/>
-      <c r="C12" s="552"/>
-      <c r="D12" s="552"/>
-      <c r="E12" s="552"/>
-      <c r="F12" s="552"/>
-      <c r="G12" s="552"/>
-      <c r="H12" s="552"/>
-      <c r="I12" s="552"/>
-      <c r="J12" s="552"/>
+      <c r="B12" s="529"/>
+      <c r="C12" s="529"/>
+      <c r="D12" s="529"/>
+      <c r="E12" s="529"/>
+      <c r="F12" s="529"/>
+      <c r="G12" s="529"/>
+      <c r="H12" s="529"/>
+      <c r="I12" s="529"/>
+      <c r="J12" s="529"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="554" t="str">
+      <c r="A13" s="531" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="B13" s="553"/>
-      <c r="C13" s="553"/>
-      <c r="D13" s="553"/>
-      <c r="E13" s="553"/>
-      <c r="F13" s="553"/>
-      <c r="G13" s="553"/>
-      <c r="H13" s="553"/>
-      <c r="I13" s="553"/>
-      <c r="J13" s="553"/>
+      <c r="B13" s="530"/>
+      <c r="C13" s="530"/>
+      <c r="D13" s="530"/>
+      <c r="E13" s="530"/>
+      <c r="F13" s="530"/>
+      <c r="G13" s="530"/>
+      <c r="H13" s="530"/>
+      <c r="I13" s="530"/>
+      <c r="J13" s="530"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10820,493 +10820,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="550" t="s">
+      <c r="A22" s="535" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="550" t="s">
+      <c r="B22" s="535" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="550"/>
-      <c r="D22" s="550"/>
-      <c r="E22" s="550" t="s">
+      <c r="C22" s="535"/>
+      <c r="D22" s="535"/>
+      <c r="E22" s="535" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="550"/>
-      <c r="G22" s="551" t="s">
+      <c r="F22" s="535"/>
+      <c r="G22" s="553" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="550" t="s">
+      <c r="H22" s="535" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="550"/>
-      <c r="J22" s="550"/>
+      <c r="I22" s="535"/>
+      <c r="J22" s="535"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="550"/>
-      <c r="B23" s="550"/>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="550"/>
-      <c r="F23" s="550"/>
-      <c r="G23" s="551"/>
-      <c r="H23" s="550"/>
-      <c r="I23" s="550"/>
-      <c r="J23" s="550"/>
+      <c r="A23" s="535"/>
+      <c r="B23" s="535"/>
+      <c r="C23" s="535"/>
+      <c r="D23" s="535"/>
+      <c r="E23" s="535"/>
+      <c r="F23" s="535"/>
+      <c r="G23" s="553"/>
+      <c r="H23" s="535"/>
+      <c r="I23" s="535"/>
+      <c r="J23" s="535"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="529">
+      <c r="A24" s="536">
         <v>1</v>
       </c>
-      <c r="B24" s="555" t="s">
+      <c r="B24" s="550" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="556"/>
-      <c r="D24" s="557"/>
-      <c r="E24" s="534" t="str">
+      <c r="C24" s="551"/>
+      <c r="D24" s="552"/>
+      <c r="E24" s="538" t="str">
         <f>Данные!C14</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F24" s="535"/>
-      <c r="G24" s="538">
+      <c r="F24" s="539"/>
+      <c r="G24" s="542">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="540"/>
-      <c r="I24" s="541"/>
-      <c r="J24" s="542"/>
+      <c r="H24" s="544"/>
+      <c r="I24" s="545"/>
+      <c r="J24" s="546"/>
     </row>
     <row r="25" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="530"/>
-      <c r="B25" s="546" t="str">
+      <c r="A25" s="537"/>
+      <c r="B25" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C25" s="547"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
-      <c r="F25" s="537"/>
-      <c r="G25" s="539"/>
-      <c r="H25" s="543"/>
-      <c r="I25" s="544"/>
-      <c r="J25" s="545"/>
+      <c r="C25" s="533"/>
+      <c r="D25" s="534"/>
+      <c r="E25" s="540"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="543"/>
+      <c r="H25" s="547"/>
+      <c r="I25" s="548"/>
+      <c r="J25" s="549"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="529">
+      <c r="A26" s="536">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="531" t="s">
+      <c r="B26" s="554" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="532"/>
-      <c r="D26" s="533"/>
-      <c r="E26" s="534" t="str">
+      <c r="C26" s="555"/>
+      <c r="D26" s="556"/>
+      <c r="E26" s="538" t="str">
         <f>Данные!C15</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F26" s="535"/>
-      <c r="G26" s="538">
+      <c r="F26" s="539"/>
+      <c r="G26" s="542">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="540"/>
-      <c r="I26" s="541"/>
-      <c r="J26" s="542"/>
+      <c r="H26" s="544"/>
+      <c r="I26" s="545"/>
+      <c r="J26" s="546"/>
     </row>
     <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="530"/>
-      <c r="B27" s="546" t="str">
+      <c r="A27" s="537"/>
+      <c r="B27" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C27" s="547"/>
-      <c r="D27" s="548"/>
-      <c r="E27" s="549"/>
-      <c r="F27" s="537"/>
-      <c r="G27" s="539"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="544"/>
-      <c r="J27" s="545"/>
+      <c r="C27" s="533"/>
+      <c r="D27" s="534"/>
+      <c r="E27" s="540"/>
+      <c r="F27" s="541"/>
+      <c r="G27" s="543"/>
+      <c r="H27" s="547"/>
+      <c r="I27" s="548"/>
+      <c r="J27" s="549"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="529">
+      <c r="A28" s="536">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="531" t="s">
+      <c r="B28" s="554" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="532"/>
-      <c r="D28" s="533"/>
-      <c r="E28" s="534" t="str">
+      <c r="C28" s="555"/>
+      <c r="D28" s="556"/>
+      <c r="E28" s="538" t="str">
         <f>Данные!C16</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F28" s="535"/>
-      <c r="G28" s="538">
+      <c r="F28" s="539"/>
+      <c r="G28" s="542">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="540"/>
-      <c r="I28" s="541"/>
-      <c r="J28" s="542"/>
+      <c r="H28" s="544"/>
+      <c r="I28" s="545"/>
+      <c r="J28" s="546"/>
     </row>
     <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="530"/>
-      <c r="B29" s="546" t="str">
+      <c r="A29" s="537"/>
+      <c r="B29" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C29" s="547"/>
-      <c r="D29" s="548"/>
-      <c r="E29" s="549"/>
-      <c r="F29" s="537"/>
-      <c r="G29" s="539"/>
-      <c r="H29" s="543"/>
-      <c r="I29" s="544"/>
-      <c r="J29" s="545"/>
+      <c r="C29" s="533"/>
+      <c r="D29" s="534"/>
+      <c r="E29" s="540"/>
+      <c r="F29" s="541"/>
+      <c r="G29" s="543"/>
+      <c r="H29" s="547"/>
+      <c r="I29" s="548"/>
+      <c r="J29" s="549"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="529">
+      <c r="A30" s="536">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="531" t="s">
+      <c r="B30" s="554" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="532"/>
-      <c r="D30" s="533"/>
-      <c r="E30" s="534" t="str">
+      <c r="C30" s="555"/>
+      <c r="D30" s="556"/>
+      <c r="E30" s="538" t="str">
         <f>Данные!C17</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F30" s="535"/>
-      <c r="G30" s="538">
+      <c r="F30" s="539"/>
+      <c r="G30" s="542">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="540"/>
-      <c r="I30" s="541"/>
-      <c r="J30" s="542"/>
+      <c r="H30" s="544"/>
+      <c r="I30" s="545"/>
+      <c r="J30" s="546"/>
     </row>
     <row r="31" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="530"/>
-      <c r="B31" s="546" t="str">
+      <c r="A31" s="537"/>
+      <c r="B31" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C31" s="547"/>
-      <c r="D31" s="548"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="537"/>
-      <c r="G31" s="539"/>
-      <c r="H31" s="543"/>
-      <c r="I31" s="544"/>
-      <c r="J31" s="545"/>
+      <c r="C31" s="533"/>
+      <c r="D31" s="534"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="541"/>
+      <c r="G31" s="543"/>
+      <c r="H31" s="547"/>
+      <c r="I31" s="548"/>
+      <c r="J31" s="549"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="529">
+      <c r="A32" s="536">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="531" t="s">
+      <c r="B32" s="554" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="532"/>
-      <c r="D32" s="533"/>
-      <c r="E32" s="534" t="str">
+      <c r="C32" s="555"/>
+      <c r="D32" s="556"/>
+      <c r="E32" s="538" t="str">
         <f>Данные!C18</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F32" s="535"/>
-      <c r="G32" s="538">
+      <c r="F32" s="539"/>
+      <c r="G32" s="542">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="540"/>
-      <c r="I32" s="541"/>
-      <c r="J32" s="542"/>
+      <c r="H32" s="544"/>
+      <c r="I32" s="545"/>
+      <c r="J32" s="546"/>
     </row>
     <row r="33" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="530"/>
-      <c r="B33" s="546" t="str">
+      <c r="A33" s="537"/>
+      <c r="B33" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C33" s="547"/>
-      <c r="D33" s="548"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="537"/>
-      <c r="G33" s="539"/>
-      <c r="H33" s="543"/>
-      <c r="I33" s="544"/>
-      <c r="J33" s="545"/>
+      <c r="C33" s="533"/>
+      <c r="D33" s="534"/>
+      <c r="E33" s="557"/>
+      <c r="F33" s="541"/>
+      <c r="G33" s="543"/>
+      <c r="H33" s="547"/>
+      <c r="I33" s="548"/>
+      <c r="J33" s="549"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="529">
+      <c r="A34" s="536">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="531" t="s">
+      <c r="B34" s="554" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="532"/>
-      <c r="D34" s="533"/>
-      <c r="E34" s="534" t="str">
+      <c r="C34" s="555"/>
+      <c r="D34" s="556"/>
+      <c r="E34" s="538" t="str">
         <f>Данные!C19</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F34" s="535"/>
-      <c r="G34" s="538">
+      <c r="F34" s="539"/>
+      <c r="G34" s="542">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="540"/>
-      <c r="I34" s="541"/>
-      <c r="J34" s="542"/>
+      <c r="H34" s="544"/>
+      <c r="I34" s="545"/>
+      <c r="J34" s="546"/>
     </row>
     <row r="35" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="530"/>
-      <c r="B35" s="546" t="str">
+      <c r="A35" s="537"/>
+      <c r="B35" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C35" s="547"/>
-      <c r="D35" s="548"/>
-      <c r="E35" s="536"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="539"/>
-      <c r="H35" s="543"/>
-      <c r="I35" s="544"/>
-      <c r="J35" s="545"/>
+      <c r="C35" s="533"/>
+      <c r="D35" s="534"/>
+      <c r="E35" s="557"/>
+      <c r="F35" s="541"/>
+      <c r="G35" s="543"/>
+      <c r="H35" s="547"/>
+      <c r="I35" s="548"/>
+      <c r="J35" s="549"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="529">
+      <c r="A36" s="536">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="531" t="s">
+      <c r="B36" s="554" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="532"/>
-      <c r="D36" s="533"/>
-      <c r="E36" s="534" t="str">
+      <c r="C36" s="555"/>
+      <c r="D36" s="556"/>
+      <c r="E36" s="538" t="str">
         <f>Данные!C20</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F36" s="535"/>
-      <c r="G36" s="538">
+      <c r="F36" s="539"/>
+      <c r="G36" s="542">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="540"/>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
+      <c r="H36" s="544"/>
+      <c r="I36" s="545"/>
+      <c r="J36" s="546"/>
     </row>
     <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="530"/>
-      <c r="B37" s="546" t="str">
+      <c r="A37" s="537"/>
+      <c r="B37" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C37" s="547"/>
-      <c r="D37" s="548"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="539"/>
-      <c r="H37" s="543"/>
-      <c r="I37" s="544"/>
-      <c r="J37" s="545"/>
+      <c r="C37" s="533"/>
+      <c r="D37" s="534"/>
+      <c r="E37" s="557"/>
+      <c r="F37" s="541"/>
+      <c r="G37" s="543"/>
+      <c r="H37" s="547"/>
+      <c r="I37" s="548"/>
+      <c r="J37" s="549"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="529">
+      <c r="A38" s="536">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="531" t="s">
+      <c r="B38" s="554" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="532"/>
-      <c r="D38" s="533"/>
-      <c r="E38" s="534" t="str">
+      <c r="C38" s="555"/>
+      <c r="D38" s="556"/>
+      <c r="E38" s="538" t="str">
         <f>Данные!C21</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F38" s="535"/>
-      <c r="G38" s="538">
+      <c r="F38" s="539"/>
+      <c r="G38" s="542">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="540"/>
-      <c r="I38" s="541"/>
-      <c r="J38" s="542"/>
+      <c r="H38" s="544"/>
+      <c r="I38" s="545"/>
+      <c r="J38" s="546"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="530"/>
-      <c r="B39" s="546" t="str">
+      <c r="A39" s="537"/>
+      <c r="B39" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C39" s="547"/>
-      <c r="D39" s="548"/>
-      <c r="E39" s="536"/>
-      <c r="F39" s="537"/>
-      <c r="G39" s="539"/>
-      <c r="H39" s="543"/>
-      <c r="I39" s="544"/>
-      <c r="J39" s="545"/>
+      <c r="C39" s="533"/>
+      <c r="D39" s="534"/>
+      <c r="E39" s="557"/>
+      <c r="F39" s="541"/>
+      <c r="G39" s="543"/>
+      <c r="H39" s="547"/>
+      <c r="I39" s="548"/>
+      <c r="J39" s="549"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="529">
+      <c r="A40" s="536">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="531" t="s">
+      <c r="B40" s="554" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="532"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="534" t="str">
+      <c r="C40" s="555"/>
+      <c r="D40" s="556"/>
+      <c r="E40" s="538" t="str">
         <f>Данные!C23</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F40" s="535"/>
-      <c r="G40" s="538">
+      <c r="F40" s="539"/>
+      <c r="G40" s="542">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="540"/>
-      <c r="I40" s="541"/>
-      <c r="J40" s="542"/>
+      <c r="H40" s="544"/>
+      <c r="I40" s="545"/>
+      <c r="J40" s="546"/>
     </row>
     <row r="41" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="530"/>
-      <c r="B41" s="546" t="str">
+      <c r="A41" s="537"/>
+      <c r="B41" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C41" s="547"/>
-      <c r="D41" s="548"/>
-      <c r="E41" s="536"/>
-      <c r="F41" s="537"/>
-      <c r="G41" s="539"/>
-      <c r="H41" s="543"/>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="C41" s="533"/>
+      <c r="D41" s="534"/>
+      <c r="E41" s="557"/>
+      <c r="F41" s="541"/>
+      <c r="G41" s="543"/>
+      <c r="H41" s="547"/>
+      <c r="I41" s="548"/>
+      <c r="J41" s="549"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="529">
+      <c r="A42" s="536">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="531" t="s">
+      <c r="B42" s="554" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="532"/>
-      <c r="D42" s="533"/>
-      <c r="E42" s="534" t="str">
+      <c r="C42" s="555"/>
+      <c r="D42" s="556"/>
+      <c r="E42" s="538" t="str">
         <f>Данные!C26</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F42" s="535"/>
-      <c r="G42" s="538">
+      <c r="F42" s="539"/>
+      <c r="G42" s="542">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="540"/>
-      <c r="I42" s="541"/>
-      <c r="J42" s="542"/>
+      <c r="H42" s="544"/>
+      <c r="I42" s="545"/>
+      <c r="J42" s="546"/>
     </row>
     <row r="43" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="530"/>
-      <c r="B43" s="546" t="str">
+      <c r="A43" s="537"/>
+      <c r="B43" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C43" s="547"/>
-      <c r="D43" s="548"/>
-      <c r="E43" s="536"/>
-      <c r="F43" s="537"/>
-      <c r="G43" s="539"/>
-      <c r="H43" s="543"/>
-      <c r="I43" s="544"/>
-      <c r="J43" s="545"/>
+      <c r="C43" s="533"/>
+      <c r="D43" s="534"/>
+      <c r="E43" s="557"/>
+      <c r="F43" s="541"/>
+      <c r="G43" s="543"/>
+      <c r="H43" s="547"/>
+      <c r="I43" s="548"/>
+      <c r="J43" s="549"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="529">
+      <c r="A44" s="536">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="531" t="s">
+      <c r="B44" s="554" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="532"/>
-      <c r="D44" s="533"/>
-      <c r="E44" s="534" t="str">
+      <c r="C44" s="555"/>
+      <c r="D44" s="556"/>
+      <c r="E44" s="538" t="str">
         <f>Данные!C27</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F44" s="535"/>
-      <c r="G44" s="538">
+      <c r="F44" s="539"/>
+      <c r="G44" s="542">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="540"/>
-      <c r="I44" s="541"/>
-      <c r="J44" s="542"/>
+      <c r="H44" s="544"/>
+      <c r="I44" s="545"/>
+      <c r="J44" s="546"/>
     </row>
     <row r="45" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="530"/>
-      <c r="B45" s="546" t="str">
+      <c r="A45" s="537"/>
+      <c r="B45" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C45" s="547"/>
-      <c r="D45" s="548"/>
-      <c r="E45" s="536"/>
-      <c r="F45" s="537"/>
-      <c r="G45" s="539"/>
-      <c r="H45" s="543"/>
-      <c r="I45" s="544"/>
-      <c r="J45" s="545"/>
+      <c r="C45" s="533"/>
+      <c r="D45" s="534"/>
+      <c r="E45" s="557"/>
+      <c r="F45" s="541"/>
+      <c r="G45" s="543"/>
+      <c r="H45" s="547"/>
+      <c r="I45" s="548"/>
+      <c r="J45" s="549"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="529">
+      <c r="A46" s="536">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="531" t="s">
+      <c r="B46" s="554" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="532"/>
-      <c r="D46" s="533"/>
-      <c r="E46" s="534" t="str">
+      <c r="C46" s="555"/>
+      <c r="D46" s="556"/>
+      <c r="E46" s="538" t="str">
         <f>Данные!C24</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F46" s="535"/>
-      <c r="G46" s="538">
+      <c r="F46" s="539"/>
+      <c r="G46" s="542">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="540"/>
-      <c r="I46" s="541"/>
-      <c r="J46" s="542"/>
+      <c r="H46" s="544"/>
+      <c r="I46" s="545"/>
+      <c r="J46" s="546"/>
     </row>
     <row r="47" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="530"/>
-      <c r="B47" s="546" t="str">
+      <c r="A47" s="537"/>
+      <c r="B47" s="532" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C47" s="547"/>
-      <c r="D47" s="548"/>
-      <c r="E47" s="536"/>
-      <c r="F47" s="537"/>
-      <c r="G47" s="539"/>
-      <c r="H47" s="543"/>
-      <c r="I47" s="544"/>
-      <c r="J47" s="545"/>
+      <c r="C47" s="533"/>
+      <c r="D47" s="534"/>
+      <c r="E47" s="557"/>
+      <c r="F47" s="541"/>
+      <c r="G47" s="543"/>
+      <c r="H47" s="547"/>
+      <c r="I47" s="548"/>
+      <c r="J47" s="549"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11435,6 +11435,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11451,70 +11515,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11569,47 +11569,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="581" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="588" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="589"/>
+      <c r="K2" s="592">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="593"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="584"/>
+      <c r="Q2" s="584"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="575"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="585" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="595"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11620,9 +11620,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="578"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11641,22 +11641,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="562"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11667,22 +11667,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="562"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11693,27 +11693,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="564"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="567"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12203,12 +12203,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="596" t="s">
+      <c r="B23" s="558" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="597"/>
-      <c r="D23" s="597"/>
-      <c r="E23" s="598"/>
+      <c r="C23" s="559"/>
+      <c r="D23" s="559"/>
+      <c r="E23" s="560"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12230,12 +12230,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="586" t="s">
+      <c r="B24" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="587"/>
-      <c r="D24" s="587"/>
-      <c r="E24" s="588"/>
+      <c r="C24" s="597"/>
+      <c r="D24" s="597"/>
+      <c r="E24" s="598"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12278,35 +12278,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="561" t="s">
+      <c r="K27" s="571" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="561"/>
-      <c r="M27" s="561"/>
+      <c r="L27" s="571"/>
+      <c r="M27" s="571"/>
       <c r="N27" s="472"/>
       <c r="O27" s="472"/>
       <c r="P27" s="488"/>
       <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="558" t="s">
+      <c r="N28" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="558"/>
-      <c r="P28" s="559" t="s">
+      <c r="O28" s="568"/>
+      <c r="P28" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="560"/>
+      <c r="Q28" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12323,6 +12316,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12388,50 +12388,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610">
+      <c r="B2" s="607">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="584"/>
+      <c r="Q2" s="584"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12442,9 +12442,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12463,22 +12463,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12489,22 +12489,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12515,27 +12515,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12726,12 +12726,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="634" t="s">
+      <c r="B14" s="605" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="635"/>
-      <c r="D14" s="635"/>
-      <c r="E14" s="635"/>
+      <c r="C14" s="606"/>
+      <c r="D14" s="606"/>
+      <c r="E14" s="606"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12753,13 +12753,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="596" t="s">
+      <c r="B15" s="558" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="597"/>
-      <c r="D15" s="597"/>
-      <c r="E15" s="597"/>
-      <c r="F15" s="633"/>
+      <c r="C15" s="559"/>
+      <c r="D15" s="559"/>
+      <c r="E15" s="559"/>
+      <c r="F15" s="604"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12778,12 +12778,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="596" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="597"/>
+      <c r="D16" s="597"/>
+      <c r="E16" s="598"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12830,39 +12830,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="561" t="s">
+      <c r="L19" s="571" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="561"/>
-      <c r="N19" s="561"/>
+      <c r="M19" s="571"/>
+      <c r="N19" s="571"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="568"/>
+      <c r="Q20" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12876,6 +12865,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12949,47 +12949,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="581" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="588" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="589"/>
+      <c r="K2" s="592">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="593"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="584"/>
+      <c r="Q2" s="584"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="575"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="585" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="595"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13000,9 +13000,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="578"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13021,22 +13021,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="562"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13047,22 +13047,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="562"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13073,27 +13073,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="564"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="567"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13584,17 +13584,24 @@
       <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="558" t="s">
+      <c r="O24" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="558"/>
-      <c r="Q24" s="559" t="s">
+      <c r="P24" s="568"/>
+      <c r="Q24" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="560"/>
+      <c r="R24" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13609,13 +13616,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13683,24 +13683,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="572"/>
+      <c r="C2" s="573"/>
+      <c r="D2" s="574"/>
+      <c r="E2" s="581" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="582"/>
+      <c r="G2" s="582"/>
+      <c r="H2" s="583"/>
+      <c r="I2" s="588" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="589"/>
+      <c r="K2" s="592">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="593"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13711,19 +13711,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="575"/>
+      <c r="C3" s="576"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="585" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
+      <c r="H3" s="587"/>
+      <c r="I3" s="590"/>
+      <c r="J3" s="591"/>
+      <c r="K3" s="594"/>
+      <c r="L3" s="595"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13734,9 +13734,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="578"/>
+      <c r="C4" s="579"/>
+      <c r="D4" s="580"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13755,22 +13755,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="600"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="561"/>
+      <c r="J5" s="562"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13781,22 +13781,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="601"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="561"/>
+      <c r="J6" s="562"/>
+      <c r="K6" s="513"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13807,27 +13807,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="564"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="563" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="567"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14122,17 +14122,23 @@
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
+      <c r="P19" s="568"/>
+      <c r="Q19" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14148,12 +14154,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14225,24 +14225,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="638"/>
       <c r="N2" s="639"/>
       <c r="O2" s="639"/>
@@ -14253,19 +14253,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="641"/>
       <c r="N3" s="642"/>
       <c r="O3" s="642"/>
@@ -14276,9 +14276,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14297,22 +14297,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="641"/>
       <c r="N5" s="642"/>
       <c r="O5" s="642"/>
@@ -14323,22 +14323,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="641"/>
       <c r="N6" s="642"/>
       <c r="O6" s="642"/>
@@ -14349,27 +14349,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="641"/>
       <c r="N7" s="642"/>
       <c r="O7" s="642"/>
@@ -14789,12 +14789,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="586" t="s">
+      <c r="B21" s="596" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="587"/>
-      <c r="D21" s="587"/>
-      <c r="E21" s="588"/>
+      <c r="C21" s="597"/>
+      <c r="D21" s="597"/>
+      <c r="E21" s="598"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14850,23 +14850,17 @@
       <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="558" t="s">
+      <c r="O25" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="558"/>
-      <c r="Q25" s="559" t="s">
+      <c r="P25" s="568"/>
+      <c r="Q25" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R25" s="560"/>
+      <c r="R25" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14883,6 +14877,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14947,24 +14947,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="607"/>
+      <c r="C2" s="608"/>
+      <c r="D2" s="609"/>
+      <c r="E2" s="616" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="617"/>
+      <c r="G2" s="617"/>
+      <c r="H2" s="618"/>
+      <c r="I2" s="622" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="623"/>
+      <c r="K2" s="626">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="627"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14975,19 +14975,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="610"/>
+      <c r="C3" s="611"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="619" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="620"/>
+      <c r="H3" s="621"/>
+      <c r="I3" s="624"/>
+      <c r="J3" s="625"/>
+      <c r="K3" s="628"/>
+      <c r="L3" s="629"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14998,9 +14998,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="613"/>
+      <c r="C4" s="614"/>
+      <c r="D4" s="615"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15019,22 +15019,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="630"/>
+      <c r="D5" s="512" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
+      <c r="H5" s="514"/>
+      <c r="I5" s="631"/>
+      <c r="J5" s="632"/>
+      <c r="K5" s="633"/>
+      <c r="L5" s="514"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15045,22 +15045,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="599" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="630"/>
+      <c r="D6" s="506" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="602"/>
+      <c r="F6" s="602"/>
+      <c r="G6" s="602"/>
+      <c r="H6" s="603"/>
+      <c r="I6" s="631"/>
+      <c r="J6" s="632"/>
+      <c r="K6" s="633"/>
+      <c r="L6" s="514"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15071,27 +15071,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="563" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="634"/>
+      <c r="D7" s="515">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="565"/>
+      <c r="F7" s="565"/>
+      <c r="G7" s="565"/>
+      <c r="H7" s="566"/>
+      <c r="I7" s="635" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="634"/>
+      <c r="K7" s="503">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="504"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15342,12 +15342,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="596" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="597"/>
+      <c r="D16" s="597"/>
+      <c r="E16" s="598"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15403,27 +15403,17 @@
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="568" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="568"/>
+      <c r="Q20" s="569" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15436,6 +15426,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ от 28.05.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ от 28.05.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-30-1-500-4 АКВА МЯТАЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C0E2B-6042-4DDF-88C7-D8B2667B7A6B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1434134-21E9-4829-957A-730FEAE8658F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3651,6 +3651,12 @@
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3695,11 +3701,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3715,10 +3720,74 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3729,60 +3798,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3792,29 +3807,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3822,6 +3912,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3837,110 +3941,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3950,93 +4037,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4067,6 +4067,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4076,12 +4079,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4092,9 +4095,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6762,25 +6762,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="507" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="509"/>
-      <c r="C1" s="509"/>
-      <c r="D1" s="509"/>
-      <c r="E1" s="509"/>
+      <c r="B1" s="511"/>
+      <c r="C1" s="511"/>
+      <c r="D1" s="511"/>
+      <c r="E1" s="511"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="506" t="s">
+      <c r="A2" s="508" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="507"/>
-      <c r="C2" s="507"/>
-      <c r="D2" s="507"/>
-      <c r="E2" s="508"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="510"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6791,45 +6791,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="510" t="s">
+      <c r="A4" s="512" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
+      <c r="B4" s="513"/>
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="514" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="513"/>
-      <c r="C5" s="513"/>
-      <c r="D5" s="513"/>
-      <c r="E5" s="514"/>
+      <c r="B5" s="515"/>
+      <c r="C5" s="515"/>
+      <c r="D5" s="515"/>
+      <c r="E5" s="516"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="505" t="s">
+      <c r="A7" s="507" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="509"/>
-      <c r="C7" s="509"/>
-      <c r="D7" s="509"/>
-      <c r="E7" s="509"/>
+      <c r="B7" s="511"/>
+      <c r="C7" s="511"/>
+      <c r="D7" s="511"/>
+      <c r="E7" s="511"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="515"/>
-      <c r="B8" s="516"/>
-      <c r="C8" s="516"/>
-      <c r="D8" s="516"/>
-      <c r="E8" s="517"/>
+      <c r="A8" s="517"/>
+      <c r="B8" s="518"/>
+      <c r="C8" s="518"/>
+      <c r="D8" s="518"/>
+      <c r="E8" s="519"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="505" t="s">
+      <c r="A10" s="507" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="505"/>
+      <c r="B10" s="507"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6840,33 +6840,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="503"/>
-      <c r="B11" s="504"/>
+      <c r="A11" s="505"/>
+      <c r="B11" s="506"/>
       <c r="D11" s="369">
         <v>43979</v>
       </c>
-      <c r="F11" s="518" t="s">
+      <c r="F11" s="502" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="518"/>
-      <c r="H11" s="518"/>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519" t="s">
+      <c r="G11" s="502"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="503" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="519"/>
+      <c r="K11" s="503"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="518" t="s">
+      <c r="F12" s="502" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="518"/>
-      <c r="H12" s="518"/>
-      <c r="I12" s="518"/>
-      <c r="J12" s="519" t="s">
+      <c r="G12" s="502"/>
+      <c r="H12" s="502"/>
+      <c r="I12" s="502"/>
+      <c r="J12" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="519"/>
+      <c r="K12" s="503"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6884,16 +6884,16 @@
       <c r="E13" s="471" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="518" t="s">
+      <c r="F13" s="502" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="518"/>
-      <c r="H13" s="518"/>
-      <c r="I13" s="518"/>
-      <c r="J13" s="519" t="s">
+      <c r="G13" s="502"/>
+      <c r="H13" s="502"/>
+      <c r="I13" s="502"/>
+      <c r="J13" s="503" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="519"/>
+      <c r="K13" s="503"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7148,11 +7148,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="502" t="s">
+      <c r="A29" s="504" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="502"/>
-      <c r="C29" s="502"/>
+      <c r="B29" s="504"/>
+      <c r="C29" s="504"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7161,12 +7161,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7176,6 +7170,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7229,24 +7229,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -7257,19 +7257,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7280,9 +7280,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7301,22 +7301,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7327,22 +7327,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7353,27 +7353,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7751,17 +7751,22 @@
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="568" t="s">
+      <c r="O22" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="568"/>
-      <c r="Q22" s="569" t="s">
+      <c r="P22" s="558"/>
+      <c r="Q22" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="570"/>
+      <c r="R22" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7778,11 +7783,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7848,47 +7848,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7899,9 +7899,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7920,22 +7920,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7946,22 +7946,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7972,27 +7972,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8321,12 +8321,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="646" t="s">
+      <c r="B18" s="647" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="647"/>
-      <c r="D18" s="647"/>
-      <c r="E18" s="648"/>
+      <c r="C18" s="648"/>
+      <c r="D18" s="648"/>
+      <c r="E18" s="649"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8380,17 +8380,26 @@
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="568" t="s">
+      <c r="O22" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="568"/>
-      <c r="Q22" s="569" t="s">
+      <c r="P22" s="558"/>
+      <c r="Q22" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="570"/>
+      <c r="R22" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8404,15 +8413,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8487,24 +8487,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8515,19 +8515,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8538,9 +8538,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8559,22 +8559,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8585,22 +8585,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8611,27 +8611,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8953,17 +8953,22 @@
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="568" t="s">
+      <c r="O20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="568"/>
-      <c r="Q20" s="569" t="s">
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8980,11 +8985,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9041,47 +9041,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="651">
+      <c r="J2" s="626"/>
+      <c r="K2" s="652">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="652"/>
+      <c r="L2" s="653"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="655"/>
-      <c r="Q2" s="655"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="653"/>
-      <c r="L3" s="654"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="654"/>
+      <c r="L3" s="655"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9092,9 +9092,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9113,22 +9113,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9139,22 +9139,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9165,27 +9165,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9458,17 +9458,22 @@
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="568" t="s">
+      <c r="O19" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="568"/>
-      <c r="Q19" s="569" t="s">
+      <c r="P19" s="558"/>
+      <c r="Q19" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="570"/>
+      <c r="R19" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9485,11 +9490,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -10301,12 +10301,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="522" t="s">
+      <c r="A36" s="525" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="522"/>
-      <c r="C36" s="522"/>
-      <c r="D36" s="522"/>
+      <c r="B36" s="525"/>
+      <c r="C36" s="525"/>
+      <c r="D36" s="525"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10315,10 +10315,10 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="523" t="s">
+      <c r="A37" s="526" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="523"/>
+      <c r="B37" s="526"/>
       <c r="C37" s="459" t="s">
         <v>130</v>
       </c>
@@ -10333,11 +10333,11 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="524">
+      <c r="A38" s="527">
         <f>A21-F32</f>
         <v>16337076</v>
       </c>
-      <c r="B38" s="525"/>
+      <c r="B38" s="528"/>
       <c r="C38" s="460">
         <f>1-G32</f>
         <v>0.972445</v>
@@ -10399,8 +10399,8 @@
       <c r="F42" s="464"/>
       <c r="G42" s="464"/>
       <c r="H42" s="464"/>
-      <c r="I42" s="526"/>
-      <c r="J42" s="527"/>
+      <c r="I42" s="520"/>
+      <c r="J42" s="521"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="465"/>
@@ -10494,9 +10494,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="520"/>
-      <c r="C52" s="520"/>
-      <c r="D52" s="521"/>
+      <c r="B52" s="523"/>
+      <c r="C52" s="523"/>
+      <c r="D52" s="524"/>
       <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10513,8 +10513,8 @@
       <c r="F53" s="464"/>
       <c r="G53" s="464"/>
       <c r="H53" s="464"/>
-      <c r="I53" s="526"/>
-      <c r="J53" s="527"/>
+      <c r="I53" s="520"/>
+      <c r="J53" s="521"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="465"/>
@@ -10525,8 +10525,8 @@
       <c r="F54" s="412"/>
       <c r="G54" s="412"/>
       <c r="H54" s="466"/>
-      <c r="I54" s="528"/>
-      <c r="J54" s="528"/>
+      <c r="I54" s="522"/>
+      <c r="J54" s="522"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="465"/>
@@ -10537,8 +10537,8 @@
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="402"/>
-      <c r="I55" s="528"/>
-      <c r="J55" s="528"/>
+      <c r="I55" s="522"/>
+      <c r="J55" s="522"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10551,25 +10551,25 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="526"/>
-      <c r="C61" s="527"/>
+      <c r="B61" s="520"/>
+      <c r="C61" s="521"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="526"/>
-      <c r="C68" s="527"/>
+      <c r="B68" s="520"/>
+      <c r="C68" s="521"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10655,47 +10655,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="530" t="s">
+      <c r="A11" s="553" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="530"/>
-      <c r="C11" s="530"/>
-      <c r="D11" s="530"/>
-      <c r="E11" s="530"/>
-      <c r="F11" s="530"/>
-      <c r="G11" s="530"/>
-      <c r="H11" s="530"/>
-      <c r="I11" s="530"/>
-      <c r="J11" s="530"/>
+      <c r="B11" s="553"/>
+      <c r="C11" s="553"/>
+      <c r="D11" s="553"/>
+      <c r="E11" s="553"/>
+      <c r="F11" s="553"/>
+      <c r="G11" s="553"/>
+      <c r="H11" s="553"/>
+      <c r="I11" s="553"/>
+      <c r="J11" s="553"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="529" t="s">
+      <c r="A12" s="552" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="529"/>
-      <c r="C12" s="529"/>
-      <c r="D12" s="529"/>
-      <c r="E12" s="529"/>
-      <c r="F12" s="529"/>
-      <c r="G12" s="529"/>
-      <c r="H12" s="529"/>
-      <c r="I12" s="529"/>
-      <c r="J12" s="529"/>
+      <c r="B12" s="552"/>
+      <c r="C12" s="552"/>
+      <c r="D12" s="552"/>
+      <c r="E12" s="552"/>
+      <c r="F12" s="552"/>
+      <c r="G12" s="552"/>
+      <c r="H12" s="552"/>
+      <c r="I12" s="552"/>
+      <c r="J12" s="552"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="531" t="str">
+      <c r="A13" s="554" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="B13" s="530"/>
-      <c r="C13" s="530"/>
-      <c r="D13" s="530"/>
-      <c r="E13" s="530"/>
-      <c r="F13" s="530"/>
-      <c r="G13" s="530"/>
-      <c r="H13" s="530"/>
-      <c r="I13" s="530"/>
-      <c r="J13" s="530"/>
+      <c r="B13" s="553"/>
+      <c r="C13" s="553"/>
+      <c r="D13" s="553"/>
+      <c r="E13" s="553"/>
+      <c r="F13" s="553"/>
+      <c r="G13" s="553"/>
+      <c r="H13" s="553"/>
+      <c r="I13" s="553"/>
+      <c r="J13" s="553"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10820,493 +10820,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="535" t="s">
+      <c r="A22" s="550" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="535" t="s">
+      <c r="B22" s="550" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="535"/>
-      <c r="D22" s="535"/>
-      <c r="E22" s="535" t="s">
+      <c r="C22" s="550"/>
+      <c r="D22" s="550"/>
+      <c r="E22" s="550" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="535"/>
-      <c r="G22" s="553" t="s">
+      <c r="F22" s="550"/>
+      <c r="G22" s="551" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="535" t="s">
+      <c r="H22" s="550" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="535"/>
-      <c r="J22" s="535"/>
+      <c r="I22" s="550"/>
+      <c r="J22" s="550"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="535"/>
-      <c r="B23" s="535"/>
-      <c r="C23" s="535"/>
-      <c r="D23" s="535"/>
-      <c r="E23" s="535"/>
-      <c r="F23" s="535"/>
-      <c r="G23" s="553"/>
-      <c r="H23" s="535"/>
-      <c r="I23" s="535"/>
-      <c r="J23" s="535"/>
+      <c r="A23" s="550"/>
+      <c r="B23" s="550"/>
+      <c r="C23" s="550"/>
+      <c r="D23" s="550"/>
+      <c r="E23" s="550"/>
+      <c r="F23" s="550"/>
+      <c r="G23" s="551"/>
+      <c r="H23" s="550"/>
+      <c r="I23" s="550"/>
+      <c r="J23" s="550"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="536">
+      <c r="A24" s="529">
         <v>1</v>
       </c>
-      <c r="B24" s="550" t="s">
+      <c r="B24" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="551"/>
-      <c r="D24" s="552"/>
-      <c r="E24" s="538" t="str">
+      <c r="C24" s="556"/>
+      <c r="D24" s="557"/>
+      <c r="E24" s="534" t="str">
         <f>Данные!C14</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F24" s="539"/>
-      <c r="G24" s="542">
+      <c r="F24" s="535"/>
+      <c r="G24" s="538">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="544"/>
-      <c r="I24" s="545"/>
-      <c r="J24" s="546"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="541"/>
+      <c r="J24" s="542"/>
     </row>
     <row r="25" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="537"/>
-      <c r="B25" s="532" t="str">
+      <c r="A25" s="530"/>
+      <c r="B25" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C25" s="533"/>
-      <c r="D25" s="534"/>
-      <c r="E25" s="540"/>
-      <c r="F25" s="541"/>
-      <c r="G25" s="543"/>
-      <c r="H25" s="547"/>
-      <c r="I25" s="548"/>
-      <c r="J25" s="549"/>
+      <c r="C25" s="547"/>
+      <c r="D25" s="548"/>
+      <c r="E25" s="549"/>
+      <c r="F25" s="537"/>
+      <c r="G25" s="539"/>
+      <c r="H25" s="543"/>
+      <c r="I25" s="544"/>
+      <c r="J25" s="545"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="536">
+      <c r="A26" s="529">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="554" t="s">
+      <c r="B26" s="531" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="555"/>
-      <c r="D26" s="556"/>
-      <c r="E26" s="538" t="str">
+      <c r="C26" s="532"/>
+      <c r="D26" s="533"/>
+      <c r="E26" s="534" t="str">
         <f>Данные!C15</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F26" s="539"/>
-      <c r="G26" s="542">
+      <c r="F26" s="535"/>
+      <c r="G26" s="538">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="544"/>
-      <c r="I26" s="545"/>
-      <c r="J26" s="546"/>
+      <c r="H26" s="540"/>
+      <c r="I26" s="541"/>
+      <c r="J26" s="542"/>
     </row>
     <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="537"/>
-      <c r="B27" s="532" t="str">
+      <c r="A27" s="530"/>
+      <c r="B27" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C27" s="533"/>
-      <c r="D27" s="534"/>
-      <c r="E27" s="540"/>
-      <c r="F27" s="541"/>
-      <c r="G27" s="543"/>
-      <c r="H27" s="547"/>
-      <c r="I27" s="548"/>
-      <c r="J27" s="549"/>
+      <c r="C27" s="547"/>
+      <c r="D27" s="548"/>
+      <c r="E27" s="549"/>
+      <c r="F27" s="537"/>
+      <c r="G27" s="539"/>
+      <c r="H27" s="543"/>
+      <c r="I27" s="544"/>
+      <c r="J27" s="545"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="536">
+      <c r="A28" s="529">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="554" t="s">
+      <c r="B28" s="531" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="555"/>
-      <c r="D28" s="556"/>
-      <c r="E28" s="538" t="str">
+      <c r="C28" s="532"/>
+      <c r="D28" s="533"/>
+      <c r="E28" s="534" t="str">
         <f>Данные!C16</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F28" s="539"/>
-      <c r="G28" s="542">
+      <c r="F28" s="535"/>
+      <c r="G28" s="538">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="544"/>
-      <c r="I28" s="545"/>
-      <c r="J28" s="546"/>
+      <c r="H28" s="540"/>
+      <c r="I28" s="541"/>
+      <c r="J28" s="542"/>
     </row>
     <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="537"/>
-      <c r="B29" s="532" t="str">
+      <c r="A29" s="530"/>
+      <c r="B29" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C29" s="533"/>
-      <c r="D29" s="534"/>
-      <c r="E29" s="540"/>
-      <c r="F29" s="541"/>
-      <c r="G29" s="543"/>
-      <c r="H29" s="547"/>
-      <c r="I29" s="548"/>
-      <c r="J29" s="549"/>
+      <c r="C29" s="547"/>
+      <c r="D29" s="548"/>
+      <c r="E29" s="549"/>
+      <c r="F29" s="537"/>
+      <c r="G29" s="539"/>
+      <c r="H29" s="543"/>
+      <c r="I29" s="544"/>
+      <c r="J29" s="545"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="536">
+      <c r="A30" s="529">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="554" t="s">
+      <c r="B30" s="531" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="555"/>
-      <c r="D30" s="556"/>
-      <c r="E30" s="538" t="str">
+      <c r="C30" s="532"/>
+      <c r="D30" s="533"/>
+      <c r="E30" s="534" t="str">
         <f>Данные!C17</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F30" s="539"/>
-      <c r="G30" s="542">
+      <c r="F30" s="535"/>
+      <c r="G30" s="538">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="544"/>
-      <c r="I30" s="545"/>
-      <c r="J30" s="546"/>
+      <c r="H30" s="540"/>
+      <c r="I30" s="541"/>
+      <c r="J30" s="542"/>
     </row>
     <row r="31" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="537"/>
-      <c r="B31" s="532" t="str">
+      <c r="A31" s="530"/>
+      <c r="B31" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C31" s="533"/>
-      <c r="D31" s="534"/>
-      <c r="E31" s="557"/>
-      <c r="F31" s="541"/>
-      <c r="G31" s="543"/>
-      <c r="H31" s="547"/>
-      <c r="I31" s="548"/>
-      <c r="J31" s="549"/>
+      <c r="C31" s="547"/>
+      <c r="D31" s="548"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="537"/>
+      <c r="G31" s="539"/>
+      <c r="H31" s="543"/>
+      <c r="I31" s="544"/>
+      <c r="J31" s="545"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="536">
+      <c r="A32" s="529">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="554" t="s">
+      <c r="B32" s="531" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="555"/>
-      <c r="D32" s="556"/>
-      <c r="E32" s="538" t="str">
+      <c r="C32" s="532"/>
+      <c r="D32" s="533"/>
+      <c r="E32" s="534" t="str">
         <f>Данные!C18</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F32" s="539"/>
-      <c r="G32" s="542">
+      <c r="F32" s="535"/>
+      <c r="G32" s="538">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="544"/>
-      <c r="I32" s="545"/>
-      <c r="J32" s="546"/>
+      <c r="H32" s="540"/>
+      <c r="I32" s="541"/>
+      <c r="J32" s="542"/>
     </row>
     <row r="33" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="537"/>
-      <c r="B33" s="532" t="str">
+      <c r="A33" s="530"/>
+      <c r="B33" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C33" s="533"/>
-      <c r="D33" s="534"/>
-      <c r="E33" s="557"/>
-      <c r="F33" s="541"/>
-      <c r="G33" s="543"/>
-      <c r="H33" s="547"/>
-      <c r="I33" s="548"/>
-      <c r="J33" s="549"/>
+      <c r="C33" s="547"/>
+      <c r="D33" s="548"/>
+      <c r="E33" s="536"/>
+      <c r="F33" s="537"/>
+      <c r="G33" s="539"/>
+      <c r="H33" s="543"/>
+      <c r="I33" s="544"/>
+      <c r="J33" s="545"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="536">
+      <c r="A34" s="529">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="554" t="s">
+      <c r="B34" s="531" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="555"/>
-      <c r="D34" s="556"/>
-      <c r="E34" s="538" t="str">
+      <c r="C34" s="532"/>
+      <c r="D34" s="533"/>
+      <c r="E34" s="534" t="str">
         <f>Данные!C19</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F34" s="539"/>
-      <c r="G34" s="542">
+      <c r="F34" s="535"/>
+      <c r="G34" s="538">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="544"/>
-      <c r="I34" s="545"/>
-      <c r="J34" s="546"/>
+      <c r="H34" s="540"/>
+      <c r="I34" s="541"/>
+      <c r="J34" s="542"/>
     </row>
     <row r="35" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="537"/>
-      <c r="B35" s="532" t="str">
+      <c r="A35" s="530"/>
+      <c r="B35" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C35" s="533"/>
-      <c r="D35" s="534"/>
-      <c r="E35" s="557"/>
-      <c r="F35" s="541"/>
-      <c r="G35" s="543"/>
-      <c r="H35" s="547"/>
-      <c r="I35" s="548"/>
-      <c r="J35" s="549"/>
+      <c r="C35" s="547"/>
+      <c r="D35" s="548"/>
+      <c r="E35" s="536"/>
+      <c r="F35" s="537"/>
+      <c r="G35" s="539"/>
+      <c r="H35" s="543"/>
+      <c r="I35" s="544"/>
+      <c r="J35" s="545"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="536">
+      <c r="A36" s="529">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="554" t="s">
+      <c r="B36" s="531" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="555"/>
-      <c r="D36" s="556"/>
-      <c r="E36" s="538" t="str">
+      <c r="C36" s="532"/>
+      <c r="D36" s="533"/>
+      <c r="E36" s="534" t="str">
         <f>Данные!C20</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F36" s="539"/>
-      <c r="G36" s="542">
+      <c r="F36" s="535"/>
+      <c r="G36" s="538">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="544"/>
-      <c r="I36" s="545"/>
-      <c r="J36" s="546"/>
+      <c r="H36" s="540"/>
+      <c r="I36" s="541"/>
+      <c r="J36" s="542"/>
     </row>
     <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="537"/>
-      <c r="B37" s="532" t="str">
+      <c r="A37" s="530"/>
+      <c r="B37" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C37" s="533"/>
-      <c r="D37" s="534"/>
-      <c r="E37" s="557"/>
-      <c r="F37" s="541"/>
-      <c r="G37" s="543"/>
-      <c r="H37" s="547"/>
-      <c r="I37" s="548"/>
-      <c r="J37" s="549"/>
+      <c r="C37" s="547"/>
+      <c r="D37" s="548"/>
+      <c r="E37" s="536"/>
+      <c r="F37" s="537"/>
+      <c r="G37" s="539"/>
+      <c r="H37" s="543"/>
+      <c r="I37" s="544"/>
+      <c r="J37" s="545"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="536">
+      <c r="A38" s="529">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="554" t="s">
+      <c r="B38" s="531" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="555"/>
-      <c r="D38" s="556"/>
-      <c r="E38" s="538" t="str">
+      <c r="C38" s="532"/>
+      <c r="D38" s="533"/>
+      <c r="E38" s="534" t="str">
         <f>Данные!C21</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F38" s="539"/>
-      <c r="G38" s="542">
+      <c r="F38" s="535"/>
+      <c r="G38" s="538">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="544"/>
-      <c r="I38" s="545"/>
-      <c r="J38" s="546"/>
+      <c r="H38" s="540"/>
+      <c r="I38" s="541"/>
+      <c r="J38" s="542"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="537"/>
-      <c r="B39" s="532" t="str">
+      <c r="A39" s="530"/>
+      <c r="B39" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C39" s="533"/>
-      <c r="D39" s="534"/>
-      <c r="E39" s="557"/>
-      <c r="F39" s="541"/>
-      <c r="G39" s="543"/>
-      <c r="H39" s="547"/>
-      <c r="I39" s="548"/>
-      <c r="J39" s="549"/>
+      <c r="C39" s="547"/>
+      <c r="D39" s="548"/>
+      <c r="E39" s="536"/>
+      <c r="F39" s="537"/>
+      <c r="G39" s="539"/>
+      <c r="H39" s="543"/>
+      <c r="I39" s="544"/>
+      <c r="J39" s="545"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="536">
+      <c r="A40" s="529">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="554" t="s">
+      <c r="B40" s="531" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="555"/>
-      <c r="D40" s="556"/>
-      <c r="E40" s="538" t="str">
+      <c r="C40" s="532"/>
+      <c r="D40" s="533"/>
+      <c r="E40" s="534" t="str">
         <f>Данные!C23</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F40" s="539"/>
-      <c r="G40" s="542">
+      <c r="F40" s="535"/>
+      <c r="G40" s="538">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="544"/>
-      <c r="I40" s="545"/>
-      <c r="J40" s="546"/>
+      <c r="H40" s="540"/>
+      <c r="I40" s="541"/>
+      <c r="J40" s="542"/>
     </row>
     <row r="41" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="537"/>
-      <c r="B41" s="532" t="str">
+      <c r="A41" s="530"/>
+      <c r="B41" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C41" s="533"/>
-      <c r="D41" s="534"/>
-      <c r="E41" s="557"/>
-      <c r="F41" s="541"/>
-      <c r="G41" s="543"/>
-      <c r="H41" s="547"/>
-      <c r="I41" s="548"/>
-      <c r="J41" s="549"/>
+      <c r="C41" s="547"/>
+      <c r="D41" s="548"/>
+      <c r="E41" s="536"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="539"/>
+      <c r="H41" s="543"/>
+      <c r="I41" s="544"/>
+      <c r="J41" s="545"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="536">
+      <c r="A42" s="529">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="554" t="s">
+      <c r="B42" s="531" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="555"/>
-      <c r="D42" s="556"/>
-      <c r="E42" s="538" t="str">
+      <c r="C42" s="532"/>
+      <c r="D42" s="533"/>
+      <c r="E42" s="534" t="str">
         <f>Данные!C26</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F42" s="539"/>
-      <c r="G42" s="542">
+      <c r="F42" s="535"/>
+      <c r="G42" s="538">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="544"/>
-      <c r="I42" s="545"/>
-      <c r="J42" s="546"/>
+      <c r="H42" s="540"/>
+      <c r="I42" s="541"/>
+      <c r="J42" s="542"/>
     </row>
     <row r="43" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="537"/>
-      <c r="B43" s="532" t="str">
+      <c r="A43" s="530"/>
+      <c r="B43" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C43" s="533"/>
-      <c r="D43" s="534"/>
-      <c r="E43" s="557"/>
-      <c r="F43" s="541"/>
-      <c r="G43" s="543"/>
-      <c r="H43" s="547"/>
-      <c r="I43" s="548"/>
-      <c r="J43" s="549"/>
+      <c r="C43" s="547"/>
+      <c r="D43" s="548"/>
+      <c r="E43" s="536"/>
+      <c r="F43" s="537"/>
+      <c r="G43" s="539"/>
+      <c r="H43" s="543"/>
+      <c r="I43" s="544"/>
+      <c r="J43" s="545"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="536">
+      <c r="A44" s="529">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="554" t="s">
+      <c r="B44" s="531" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="555"/>
-      <c r="D44" s="556"/>
-      <c r="E44" s="538" t="str">
+      <c r="C44" s="532"/>
+      <c r="D44" s="533"/>
+      <c r="E44" s="534" t="str">
         <f>Данные!C27</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F44" s="539"/>
-      <c r="G44" s="542">
+      <c r="F44" s="535"/>
+      <c r="G44" s="538">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="544"/>
-      <c r="I44" s="545"/>
-      <c r="J44" s="546"/>
+      <c r="H44" s="540"/>
+      <c r="I44" s="541"/>
+      <c r="J44" s="542"/>
     </row>
     <row r="45" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="537"/>
-      <c r="B45" s="532" t="str">
+      <c r="A45" s="530"/>
+      <c r="B45" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C45" s="533"/>
-      <c r="D45" s="534"/>
-      <c r="E45" s="557"/>
-      <c r="F45" s="541"/>
-      <c r="G45" s="543"/>
-      <c r="H45" s="547"/>
-      <c r="I45" s="548"/>
-      <c r="J45" s="549"/>
+      <c r="C45" s="547"/>
+      <c r="D45" s="548"/>
+      <c r="E45" s="536"/>
+      <c r="F45" s="537"/>
+      <c r="G45" s="539"/>
+      <c r="H45" s="543"/>
+      <c r="I45" s="544"/>
+      <c r="J45" s="545"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="536">
+      <c r="A46" s="529">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="554" t="s">
+      <c r="B46" s="531" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="555"/>
-      <c r="D46" s="556"/>
-      <c r="E46" s="538" t="str">
+      <c r="C46" s="532"/>
+      <c r="D46" s="533"/>
+      <c r="E46" s="534" t="str">
         <f>Данные!C24</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F46" s="539"/>
-      <c r="G46" s="542">
+      <c r="F46" s="535"/>
+      <c r="G46" s="538">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="544"/>
-      <c r="I46" s="545"/>
-      <c r="J46" s="546"/>
+      <c r="H46" s="540"/>
+      <c r="I46" s="541"/>
+      <c r="J46" s="542"/>
     </row>
     <row r="47" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="537"/>
-      <c r="B47" s="532" t="str">
+      <c r="A47" s="530"/>
+      <c r="B47" s="546" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C47" s="533"/>
-      <c r="D47" s="534"/>
-      <c r="E47" s="557"/>
-      <c r="F47" s="541"/>
-      <c r="G47" s="543"/>
-      <c r="H47" s="547"/>
-      <c r="I47" s="548"/>
-      <c r="J47" s="549"/>
+      <c r="C47" s="547"/>
+      <c r="D47" s="548"/>
+      <c r="E47" s="536"/>
+      <c r="F47" s="537"/>
+      <c r="G47" s="539"/>
+      <c r="H47" s="543"/>
+      <c r="I47" s="544"/>
+      <c r="J47" s="545"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11435,70 +11435,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11515,6 +11451,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11569,47 +11569,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="572"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="574"/>
-      <c r="E2" s="581" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="583"/>
-      <c r="I2" s="588" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="589"/>
-      <c r="K2" s="592">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="593"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="575"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="577"/>
-      <c r="E3" s="585" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
-      <c r="H3" s="587"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="595"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11620,9 +11620,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="578"/>
-      <c r="C4" s="579"/>
-      <c r="D4" s="580"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11641,22 +11641,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="562"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11667,22 +11667,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11693,27 +11693,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="515">
+      <c r="C7" s="600"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="563" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="503">
+      <c r="J7" s="603"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12203,12 +12203,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="558" t="s">
+      <c r="B23" s="596" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="559"/>
-      <c r="D23" s="559"/>
-      <c r="E23" s="560"/>
+      <c r="C23" s="597"/>
+      <c r="D23" s="597"/>
+      <c r="E23" s="598"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12230,12 +12230,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="596" t="s">
+      <c r="B24" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="597"/>
-      <c r="D24" s="597"/>
-      <c r="E24" s="598"/>
+      <c r="C24" s="587"/>
+      <c r="D24" s="587"/>
+      <c r="E24" s="588"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12278,28 +12278,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="571" t="s">
+      <c r="K27" s="561" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="571"/>
-      <c r="M27" s="571"/>
+      <c r="L27" s="561"/>
+      <c r="M27" s="561"/>
       <c r="N27" s="472"/>
       <c r="O27" s="472"/>
       <c r="P27" s="488"/>
       <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="568" t="s">
+      <c r="N28" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="568"/>
-      <c r="P28" s="569" t="s">
+      <c r="O28" s="558"/>
+      <c r="P28" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="570"/>
+      <c r="Q28" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12316,13 +12323,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12388,50 +12388,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607">
+      <c r="B2" s="610">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12442,9 +12442,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12463,22 +12463,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12489,22 +12489,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12515,27 +12515,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12726,12 +12726,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="605" t="s">
+      <c r="B14" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="606"/>
-      <c r="D14" s="606"/>
-      <c r="E14" s="606"/>
+      <c r="C14" s="635"/>
+      <c r="D14" s="635"/>
+      <c r="E14" s="635"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12753,13 +12753,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="558" t="s">
+      <c r="B15" s="596" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="559"/>
-      <c r="D15" s="559"/>
-      <c r="E15" s="559"/>
-      <c r="F15" s="604"/>
+      <c r="C15" s="597"/>
+      <c r="D15" s="597"/>
+      <c r="E15" s="597"/>
+      <c r="F15" s="633"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12778,12 +12778,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="596" t="s">
+      <c r="B16" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="597"/>
-      <c r="D16" s="597"/>
-      <c r="E16" s="598"/>
+      <c r="C16" s="587"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="588"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12830,28 +12830,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="571" t="s">
+      <c r="L19" s="561" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="571"/>
-      <c r="N19" s="571"/>
+      <c r="M19" s="561"/>
+      <c r="N19" s="561"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="568" t="s">
+      <c r="O20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="568"/>
-      <c r="Q20" s="569" t="s">
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12865,17 +12876,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12949,47 +12949,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="572"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="574"/>
-      <c r="E2" s="581" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="583"/>
-      <c r="I2" s="588" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="589"/>
-      <c r="K2" s="592">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="593"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="584"/>
-      <c r="Q2" s="584"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="575"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="577"/>
-      <c r="E3" s="585" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
-      <c r="H3" s="587"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="595"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13000,9 +13000,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="578"/>
-      <c r="C4" s="579"/>
-      <c r="D4" s="580"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13021,22 +13021,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="562"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13047,22 +13047,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13073,27 +13073,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="515">
+      <c r="C7" s="600"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="563" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="503">
+      <c r="J7" s="603"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13584,24 +13584,17 @@
       <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="568" t="s">
+      <c r="O24" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="568"/>
-      <c r="Q24" s="569" t="s">
+      <c r="P24" s="558"/>
+      <c r="Q24" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="570"/>
+      <c r="R24" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13616,6 +13609,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13683,24 +13683,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="572"/>
-      <c r="C2" s="573"/>
-      <c r="D2" s="574"/>
-      <c r="E2" s="581" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="582"/>
-      <c r="G2" s="582"/>
-      <c r="H2" s="583"/>
-      <c r="I2" s="588" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="589"/>
-      <c r="K2" s="592">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="593"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13711,19 +13711,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="575"/>
-      <c r="C3" s="576"/>
-      <c r="D3" s="577"/>
-      <c r="E3" s="585" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
-      <c r="H3" s="587"/>
-      <c r="I3" s="590"/>
-      <c r="J3" s="591"/>
-      <c r="K3" s="594"/>
-      <c r="L3" s="595"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13734,9 +13734,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="578"/>
-      <c r="C4" s="579"/>
-      <c r="D4" s="580"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13755,22 +13755,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="600"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="561"/>
-      <c r="J5" s="562"/>
-      <c r="K5" s="513"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="591"/>
+      <c r="J5" s="592"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13781,22 +13781,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="601"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="561"/>
-      <c r="J6" s="562"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="591"/>
+      <c r="J6" s="592"/>
+      <c r="K6" s="515"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13807,27 +13807,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="564"/>
-      <c r="D7" s="515">
+      <c r="C7" s="600"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="563" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="599" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="567"/>
-      <c r="K7" s="503">
+      <c r="J7" s="603"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14122,23 +14122,17 @@
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="568" t="s">
+      <c r="O19" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="568"/>
-      <c r="Q19" s="569" t="s">
+      <c r="P19" s="558"/>
+      <c r="Q19" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="570"/>
+      <c r="R19" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14154,6 +14148,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14225,24 +14225,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="638"/>
       <c r="N2" s="639"/>
       <c r="O2" s="639"/>
@@ -14253,19 +14253,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="641"/>
       <c r="N3" s="642"/>
       <c r="O3" s="642"/>
@@ -14276,9 +14276,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14297,22 +14297,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="641"/>
       <c r="N5" s="642"/>
       <c r="O5" s="642"/>
@@ -14323,22 +14323,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="641"/>
       <c r="N6" s="642"/>
       <c r="O6" s="642"/>
@@ -14349,27 +14349,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="641"/>
       <c r="N7" s="642"/>
       <c r="O7" s="642"/>
@@ -14789,12 +14789,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="596" t="s">
+      <c r="B21" s="586" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="597"/>
-      <c r="D21" s="597"/>
-      <c r="E21" s="598"/>
+      <c r="C21" s="587"/>
+      <c r="D21" s="587"/>
+      <c r="E21" s="588"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14850,17 +14850,23 @@
       <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="568" t="s">
+      <c r="O25" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="568"/>
-      <c r="Q25" s="569" t="s">
+      <c r="P25" s="558"/>
+      <c r="Q25" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R25" s="570"/>
+      <c r="R25" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14877,12 +14883,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14947,24 +14947,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="607"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="609"/>
-      <c r="E2" s="616" t="s">
+      <c r="B2" s="610"/>
+      <c r="C2" s="611"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="619" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="617"/>
-      <c r="G2" s="617"/>
-      <c r="H2" s="618"/>
-      <c r="I2" s="622" t="s">
+      <c r="F2" s="620"/>
+      <c r="G2" s="620"/>
+      <c r="H2" s="621"/>
+      <c r="I2" s="625" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="623"/>
-      <c r="K2" s="626">
+      <c r="J2" s="626"/>
+      <c r="K2" s="629">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="627"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14975,19 +14975,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="611"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="619" t="s">
+      <c r="B3" s="613"/>
+      <c r="C3" s="614"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="622" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="620"/>
-      <c r="H3" s="621"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="625"/>
-      <c r="K3" s="628"/>
-      <c r="L3" s="629"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="623"/>
+      <c r="H3" s="624"/>
+      <c r="I3" s="627"/>
+      <c r="J3" s="628"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14998,9 +14998,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="613"/>
-      <c r="C4" s="614"/>
-      <c r="D4" s="615"/>
+      <c r="B4" s="616"/>
+      <c r="C4" s="617"/>
+      <c r="D4" s="618"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15019,22 +15019,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="599" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="630"/>
-      <c r="D5" s="512" t="str">
+      <c r="C5" s="604"/>
+      <c r="D5" s="514" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
-      <c r="H5" s="514"/>
-      <c r="I5" s="631"/>
-      <c r="J5" s="632"/>
-      <c r="K5" s="633"/>
-      <c r="L5" s="514"/>
+      <c r="E5" s="515"/>
+      <c r="F5" s="515"/>
+      <c r="G5" s="515"/>
+      <c r="H5" s="516"/>
+      <c r="I5" s="605"/>
+      <c r="J5" s="606"/>
+      <c r="K5" s="607"/>
+      <c r="L5" s="516"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15045,22 +15045,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="599" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="630"/>
-      <c r="D6" s="506" t="str">
+      <c r="C6" s="604"/>
+      <c r="D6" s="508" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="602"/>
-      <c r="F6" s="602"/>
-      <c r="G6" s="602"/>
-      <c r="H6" s="603"/>
-      <c r="I6" s="631"/>
-      <c r="J6" s="632"/>
-      <c r="K6" s="633"/>
-      <c r="L6" s="514"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="605"/>
+      <c r="J6" s="606"/>
+      <c r="K6" s="607"/>
+      <c r="L6" s="516"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15071,27 +15071,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="563" t="s">
+      <c r="B7" s="599" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="634"/>
-      <c r="D7" s="515">
+      <c r="C7" s="608"/>
+      <c r="D7" s="517">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="565"/>
-      <c r="F7" s="565"/>
-      <c r="G7" s="565"/>
-      <c r="H7" s="566"/>
-      <c r="I7" s="635" t="s">
+      <c r="E7" s="601"/>
+      <c r="F7" s="601"/>
+      <c r="G7" s="601"/>
+      <c r="H7" s="602"/>
+      <c r="I7" s="609" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="634"/>
-      <c r="K7" s="503">
+      <c r="J7" s="608"/>
+      <c r="K7" s="505">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="504"/>
+      <c r="L7" s="506"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15342,12 +15342,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="596" t="s">
+      <c r="B16" s="586" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="597"/>
-      <c r="D16" s="597"/>
-      <c r="E16" s="598"/>
+      <c r="C16" s="587"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="588"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15403,17 +15403,27 @@
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="568" t="s">
+      <c r="O20" s="558" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="568"/>
-      <c r="Q20" s="569" t="s">
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="570"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15426,16 +15436,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ от 28.05.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ/XXI-КПМ-30-1-500-4 АКВА МЯТАЯ от 28.05.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-30-1-500-4 АКВА МЯТАЯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1434134-21E9-4829-957A-730FEAE8658F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D115D37-D8F4-4DBD-BA4A-627422F1CF36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3620,21 +3620,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3649,12 +3634,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3701,23 +3680,50 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3726,6 +3732,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3735,77 +3789,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3906,40 +3921,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3959,84 +4022,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4067,35 +4052,50 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6762,25 +6762,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="507" t="s">
+      <c r="A1" s="498" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-      <c r="E1" s="511"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="508" t="s">
+      <c r="A2" s="499" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="509"/>
-      <c r="C2" s="509"/>
-      <c r="D2" s="509"/>
-      <c r="E2" s="510"/>
+      <c r="B2" s="500"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="501"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6791,45 +6791,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="512" t="s">
+      <c r="A4" s="503" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="513"/>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513"/>
+      <c r="B4" s="504"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="514" t="s">
+      <c r="A5" s="505" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="515"/>
-      <c r="C5" s="515"/>
-      <c r="D5" s="515"/>
-      <c r="E5" s="516"/>
+      <c r="B5" s="506"/>
+      <c r="C5" s="506"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="507"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="507" t="s">
+      <c r="A7" s="498" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="511"/>
-      <c r="C7" s="511"/>
-      <c r="D7" s="511"/>
-      <c r="E7" s="511"/>
+      <c r="B7" s="502"/>
+      <c r="C7" s="502"/>
+      <c r="D7" s="502"/>
+      <c r="E7" s="502"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="517"/>
-      <c r="B8" s="518"/>
-      <c r="C8" s="518"/>
-      <c r="D8" s="518"/>
-      <c r="E8" s="519"/>
+      <c r="A8" s="508"/>
+      <c r="B8" s="509"/>
+      <c r="C8" s="509"/>
+      <c r="D8" s="509"/>
+      <c r="E8" s="510"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="507" t="s">
+      <c r="A10" s="498" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="507"/>
+      <c r="B10" s="498"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>93</v>
@@ -6840,33 +6840,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="505"/>
-      <c r="B11" s="506"/>
+      <c r="A11" s="496"/>
+      <c r="B11" s="497"/>
       <c r="D11" s="369">
         <v>43979</v>
       </c>
-      <c r="F11" s="502" t="s">
+      <c r="F11" s="511" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="G11" s="511"/>
+      <c r="H11" s="511"/>
+      <c r="I11" s="511"/>
+      <c r="J11" s="512" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="503"/>
+      <c r="K11" s="512"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="502" t="s">
+      <c r="F12" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
+      <c r="G12" s="511"/>
+      <c r="H12" s="511"/>
+      <c r="I12" s="511"/>
+      <c r="J12" s="512" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="503"/>
+      <c r="K12" s="512"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6884,16 +6884,16 @@
       <c r="E13" s="471" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="F13" s="511" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
+      <c r="G13" s="511"/>
+      <c r="H13" s="511"/>
+      <c r="I13" s="511"/>
+      <c r="J13" s="512" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="503"/>
+      <c r="K13" s="512"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7148,11 +7148,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="504" t="s">
+      <c r="A29" s="495" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="504"/>
-      <c r="C29" s="504"/>
+      <c r="B29" s="495"/>
+      <c r="C29" s="495"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7161,6 +7161,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7170,12 +7176,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7229,47 +7229,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="638"/>
+      <c r="Q2" s="638"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7280,9 +7280,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7301,22 +7301,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7327,22 +7327,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7353,27 +7353,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7740,33 +7740,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="636" t="s">
+      <c r="L21" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="636"/>
-      <c r="N21" s="636"/>
+      <c r="M21" s="629"/>
+      <c r="N21" s="629"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
+      <c r="P22" s="561"/>
+      <c r="Q22" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7783,6 +7778,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7848,47 +7848,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7899,9 +7899,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7920,22 +7920,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7946,22 +7946,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7972,27 +7972,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8321,12 +8321,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="647" t="s">
+      <c r="B18" s="639" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="648"/>
-      <c r="D18" s="648"/>
-      <c r="E18" s="649"/>
+      <c r="C18" s="640"/>
+      <c r="D18" s="640"/>
+      <c r="E18" s="641"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8369,37 +8369,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="636" t="s">
+      <c r="L21" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="636"/>
-      <c r="N21" s="636"/>
+      <c r="M21" s="629"/>
+      <c r="N21" s="629"/>
       <c r="O21" s="472"/>
       <c r="P21" s="472"/>
       <c r="Q21" s="488"/>
       <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
+      <c r="P22" s="561"/>
+      <c r="Q22" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8413,6 +8404,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8487,47 +8487,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="650"/>
-      <c r="Q2" s="650"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8538,9 +8538,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8559,22 +8559,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8585,22 +8585,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8611,27 +8611,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8942,33 +8942,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="636" t="s">
+      <c r="L19" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="636"/>
-      <c r="N19" s="636"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8985,6 +8980,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9041,47 +9041,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="652">
+      <c r="J2" s="616"/>
+      <c r="K2" s="644">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="653"/>
+      <c r="L2" s="645"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="651"/>
-      <c r="Q2" s="651"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="654"/>
-      <c r="L3" s="655"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="646"/>
+      <c r="L3" s="647"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9092,9 +9092,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9113,22 +9113,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9139,22 +9139,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9165,27 +9165,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9447,33 +9447,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="636" t="s">
+      <c r="L18" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="636"/>
-      <c r="N18" s="636"/>
+      <c r="M18" s="629"/>
+      <c r="N18" s="629"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
+      <c r="P19" s="561"/>
+      <c r="Q19" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9490,6 +9485,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9518,8 +9518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9574,21 +9574,21 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="496"/>
-      <c r="B3" s="497" t="s">
+      <c r="A3" s="489"/>
+      <c r="B3" s="490" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="498">
+      <c r="C3" s="491">
         <f>Данные!D11</f>
         <v>43979</v>
       </c>
-      <c r="D3" s="499" t="s">
+      <c r="D3" s="492" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
+      <c r="F3" s="489"/>
+      <c r="G3" s="489"/>
+      <c r="H3" s="489"/>
+      <c r="I3" s="489"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -10104,7 +10104,9 @@
         <f>1-G21</f>
         <v>0.972445</v>
       </c>
-      <c r="J21" s="489"/>
+      <c r="J21" s="649">
+        <v>409</v>
+      </c>
       <c r="K21" s="402"/>
       <c r="L21" s="402"/>
     </row>
@@ -10127,7 +10129,7 @@
         <f>I21-G22</f>
         <v>0.972445</v>
       </c>
-      <c r="J22" s="490"/>
+      <c r="J22" s="650"/>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
@@ -10141,7 +10143,7 @@
       <c r="G23" s="437"/>
       <c r="H23" s="438"/>
       <c r="I23" s="439"/>
-      <c r="J23" s="491"/>
+      <c r="J23" s="651"/>
       <c r="K23" s="402"/>
       <c r="L23" s="402"/>
     </row>
@@ -10155,7 +10157,7 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="440"/>
-      <c r="J24" s="492"/>
+      <c r="J24" s="652"/>
       <c r="K24" s="428"/>
       <c r="L24" s="383"/>
     </row>
@@ -10169,7 +10171,7 @@
       <c r="G25" s="441"/>
       <c r="H25" s="438"/>
       <c r="I25" s="439"/>
-      <c r="J25" s="491"/>
+      <c r="J25" s="651"/>
       <c r="K25" s="442"/>
       <c r="L25" s="383"/>
     </row>
@@ -10183,7 +10185,7 @@
       <c r="G26" s="441"/>
       <c r="H26" s="438"/>
       <c r="I26" s="439"/>
-      <c r="J26" s="491"/>
+      <c r="J26" s="651"/>
       <c r="K26" s="428"/>
       <c r="L26" s="383"/>
     </row>
@@ -10197,7 +10199,7 @@
       <c r="G27" s="441"/>
       <c r="H27" s="438"/>
       <c r="I27" s="439"/>
-      <c r="J27" s="491"/>
+      <c r="J27" s="651"/>
       <c r="K27" s="428"/>
       <c r="L27" s="383"/>
     </row>
@@ -10211,7 +10213,7 @@
       <c r="G28" s="441"/>
       <c r="H28" s="438"/>
       <c r="I28" s="439"/>
-      <c r="J28" s="491"/>
+      <c r="J28" s="651"/>
       <c r="K28" s="428"/>
       <c r="L28" s="383"/>
     </row>
@@ -10225,7 +10227,7 @@
       <c r="G29" s="443"/>
       <c r="H29" s="438"/>
       <c r="I29" s="444"/>
-      <c r="J29" s="493"/>
+      <c r="J29" s="653"/>
       <c r="K29" s="428"/>
       <c r="L29" s="383"/>
     </row>
@@ -10239,7 +10241,7 @@
       <c r="G30" s="441"/>
       <c r="H30" s="438"/>
       <c r="I30" s="444"/>
-      <c r="J30" s="493"/>
+      <c r="J30" s="653"/>
       <c r="K30" s="428"/>
       <c r="L30" s="383"/>
     </row>
@@ -10253,7 +10255,7 @@
       <c r="G31" s="449"/>
       <c r="H31" s="450"/>
       <c r="I31" s="451"/>
-      <c r="J31" s="494"/>
+      <c r="J31" s="654"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
@@ -10264,11 +10266,11 @@
       <c r="B32" s="453"/>
       <c r="C32" s="453"/>
       <c r="D32" s="454"/>
-      <c r="E32" s="500">
+      <c r="E32" s="493">
         <f>SUM(E21:E31)</f>
         <v>436272</v>
       </c>
-      <c r="F32" s="501">
+      <c r="F32" s="494">
         <f>SUM(F21:F31)</f>
         <v>462924</v>
       </c>
@@ -10284,7 +10286,7 @@
         <f>1-G32</f>
         <v>0.972445</v>
       </c>
-      <c r="J32" s="495"/>
+      <c r="J32" s="655"/>
       <c r="K32" s="458"/>
       <c r="L32" s="458"/>
     </row>
@@ -10301,12 +10303,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="525" t="s">
+      <c r="A36" s="515" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="525"/>
-      <c r="C36" s="525"/>
-      <c r="D36" s="525"/>
+      <c r="B36" s="515"/>
+      <c r="C36" s="515"/>
+      <c r="D36" s="515"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10315,10 +10317,10 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="526" t="s">
+      <c r="A37" s="516" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="526"/>
+      <c r="B37" s="516"/>
       <c r="C37" s="459" t="s">
         <v>130</v>
       </c>
@@ -10333,11 +10335,11 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="527">
+      <c r="A38" s="517">
         <f>A21-F32</f>
         <v>16337076</v>
       </c>
-      <c r="B38" s="528"/>
+      <c r="B38" s="518"/>
       <c r="C38" s="460">
         <f>1-G32</f>
         <v>0.972445</v>
@@ -10399,8 +10401,8 @@
       <c r="F42" s="464"/>
       <c r="G42" s="464"/>
       <c r="H42" s="464"/>
-      <c r="I42" s="520"/>
-      <c r="J42" s="521"/>
+      <c r="I42" s="519"/>
+      <c r="J42" s="520"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="465"/>
@@ -10494,9 +10496,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="523"/>
-      <c r="C52" s="523"/>
-      <c r="D52" s="524"/>
+      <c r="B52" s="513"/>
+      <c r="C52" s="513"/>
+      <c r="D52" s="514"/>
       <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
@@ -10513,8 +10515,8 @@
       <c r="F53" s="464"/>
       <c r="G53" s="464"/>
       <c r="H53" s="464"/>
-      <c r="I53" s="520"/>
-      <c r="J53" s="521"/>
+      <c r="I53" s="519"/>
+      <c r="J53" s="520"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="465"/>
@@ -10525,8 +10527,8 @@
       <c r="F54" s="412"/>
       <c r="G54" s="412"/>
       <c r="H54" s="466"/>
-      <c r="I54" s="522"/>
-      <c r="J54" s="522"/>
+      <c r="I54" s="521"/>
+      <c r="J54" s="521"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="465"/>
@@ -10537,8 +10539,8 @@
       <c r="F55" s="402"/>
       <c r="G55" s="402"/>
       <c r="H55" s="402"/>
-      <c r="I55" s="522"/>
-      <c r="J55" s="522"/>
+      <c r="I55" s="521"/>
+      <c r="J55" s="521"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10551,25 +10553,25 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="520"/>
-      <c r="C61" s="521"/>
+      <c r="B61" s="519"/>
+      <c r="C61" s="520"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="520"/>
-      <c r="C68" s="521"/>
+      <c r="B68" s="519"/>
+      <c r="C68" s="520"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10655,47 +10657,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="553" t="s">
+      <c r="A11" s="523" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="553"/>
-      <c r="C11" s="553"/>
-      <c r="D11" s="553"/>
-      <c r="E11" s="553"/>
-      <c r="F11" s="553"/>
-      <c r="G11" s="553"/>
-      <c r="H11" s="553"/>
-      <c r="I11" s="553"/>
-      <c r="J11" s="553"/>
+      <c r="B11" s="523"/>
+      <c r="C11" s="523"/>
+      <c r="D11" s="523"/>
+      <c r="E11" s="523"/>
+      <c r="F11" s="523"/>
+      <c r="G11" s="523"/>
+      <c r="H11" s="523"/>
+      <c r="I11" s="523"/>
+      <c r="J11" s="523"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="552" t="s">
+      <c r="A12" s="522" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="552"/>
-      <c r="C12" s="552"/>
-      <c r="D12" s="552"/>
-      <c r="E12" s="552"/>
-      <c r="F12" s="552"/>
-      <c r="G12" s="552"/>
-      <c r="H12" s="552"/>
-      <c r="I12" s="552"/>
-      <c r="J12" s="552"/>
+      <c r="B12" s="522"/>
+      <c r="C12" s="522"/>
+      <c r="D12" s="522"/>
+      <c r="E12" s="522"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="522"/>
+      <c r="H12" s="522"/>
+      <c r="I12" s="522"/>
+      <c r="J12" s="522"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="554" t="str">
+      <c r="A13" s="524" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="B13" s="553"/>
-      <c r="C13" s="553"/>
-      <c r="D13" s="553"/>
-      <c r="E13" s="553"/>
-      <c r="F13" s="553"/>
-      <c r="G13" s="553"/>
-      <c r="H13" s="553"/>
-      <c r="I13" s="553"/>
-      <c r="J13" s="553"/>
+      <c r="B13" s="523"/>
+      <c r="C13" s="523"/>
+      <c r="D13" s="523"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="523"/>
+      <c r="G13" s="523"/>
+      <c r="H13" s="523"/>
+      <c r="I13" s="523"/>
+      <c r="J13" s="523"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10820,493 +10822,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="550" t="s">
+      <c r="A22" s="528" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="550" t="s">
+      <c r="B22" s="528" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="550"/>
-      <c r="D22" s="550"/>
-      <c r="E22" s="550" t="s">
+      <c r="C22" s="528"/>
+      <c r="D22" s="528"/>
+      <c r="E22" s="528" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="550"/>
-      <c r="G22" s="551" t="s">
+      <c r="F22" s="528"/>
+      <c r="G22" s="546" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="550" t="s">
+      <c r="H22" s="528" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="550"/>
-      <c r="J22" s="550"/>
+      <c r="I22" s="528"/>
+      <c r="J22" s="528"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="550"/>
-      <c r="B23" s="550"/>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="550"/>
-      <c r="F23" s="550"/>
-      <c r="G23" s="551"/>
-      <c r="H23" s="550"/>
-      <c r="I23" s="550"/>
-      <c r="J23" s="550"/>
+      <c r="A23" s="528"/>
+      <c r="B23" s="528"/>
+      <c r="C23" s="528"/>
+      <c r="D23" s="528"/>
+      <c r="E23" s="528"/>
+      <c r="F23" s="528"/>
+      <c r="G23" s="546"/>
+      <c r="H23" s="528"/>
+      <c r="I23" s="528"/>
+      <c r="J23" s="528"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="529">
         <v>1</v>
       </c>
-      <c r="B24" s="555" t="s">
+      <c r="B24" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="556"/>
-      <c r="D24" s="557"/>
-      <c r="E24" s="534" t="str">
+      <c r="C24" s="544"/>
+      <c r="D24" s="545"/>
+      <c r="E24" s="531" t="str">
         <f>Данные!C14</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F24" s="535"/>
-      <c r="G24" s="538">
+      <c r="F24" s="532"/>
+      <c r="G24" s="535">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="540"/>
-      <c r="I24" s="541"/>
-      <c r="J24" s="542"/>
+      <c r="H24" s="537"/>
+      <c r="I24" s="538"/>
+      <c r="J24" s="539"/>
     </row>
     <row r="25" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="530"/>
-      <c r="B25" s="546" t="str">
+      <c r="B25" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C25" s="547"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
-      <c r="F25" s="537"/>
-      <c r="G25" s="539"/>
-      <c r="H25" s="543"/>
-      <c r="I25" s="544"/>
-      <c r="J25" s="545"/>
+      <c r="C25" s="526"/>
+      <c r="D25" s="527"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="534"/>
+      <c r="G25" s="536"/>
+      <c r="H25" s="540"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="542"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="529">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="531" t="s">
+      <c r="B26" s="547" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="532"/>
-      <c r="D26" s="533"/>
-      <c r="E26" s="534" t="str">
+      <c r="C26" s="548"/>
+      <c r="D26" s="549"/>
+      <c r="E26" s="531" t="str">
         <f>Данные!C15</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F26" s="535"/>
-      <c r="G26" s="538">
+      <c r="F26" s="532"/>
+      <c r="G26" s="535">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="540"/>
-      <c r="I26" s="541"/>
-      <c r="J26" s="542"/>
+      <c r="H26" s="537"/>
+      <c r="I26" s="538"/>
+      <c r="J26" s="539"/>
     </row>
     <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="530"/>
-      <c r="B27" s="546" t="str">
+      <c r="B27" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C27" s="547"/>
-      <c r="D27" s="548"/>
-      <c r="E27" s="549"/>
-      <c r="F27" s="537"/>
-      <c r="G27" s="539"/>
-      <c r="H27" s="543"/>
-      <c r="I27" s="544"/>
-      <c r="J27" s="545"/>
+      <c r="C27" s="526"/>
+      <c r="D27" s="527"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="534"/>
+      <c r="G27" s="536"/>
+      <c r="H27" s="540"/>
+      <c r="I27" s="541"/>
+      <c r="J27" s="542"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="529">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="531" t="s">
+      <c r="B28" s="547" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="532"/>
-      <c r="D28" s="533"/>
-      <c r="E28" s="534" t="str">
+      <c r="C28" s="548"/>
+      <c r="D28" s="549"/>
+      <c r="E28" s="531" t="str">
         <f>Данные!C16</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F28" s="535"/>
-      <c r="G28" s="538">
+      <c r="F28" s="532"/>
+      <c r="G28" s="535">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="540"/>
-      <c r="I28" s="541"/>
-      <c r="J28" s="542"/>
+      <c r="H28" s="537"/>
+      <c r="I28" s="538"/>
+      <c r="J28" s="539"/>
     </row>
     <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="530"/>
-      <c r="B29" s="546" t="str">
+      <c r="B29" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C29" s="547"/>
-      <c r="D29" s="548"/>
-      <c r="E29" s="549"/>
-      <c r="F29" s="537"/>
-      <c r="G29" s="539"/>
-      <c r="H29" s="543"/>
-      <c r="I29" s="544"/>
-      <c r="J29" s="545"/>
+      <c r="C29" s="526"/>
+      <c r="D29" s="527"/>
+      <c r="E29" s="533"/>
+      <c r="F29" s="534"/>
+      <c r="G29" s="536"/>
+      <c r="H29" s="540"/>
+      <c r="I29" s="541"/>
+      <c r="J29" s="542"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="529">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="531" t="s">
+      <c r="B30" s="547" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="532"/>
-      <c r="D30" s="533"/>
-      <c r="E30" s="534" t="str">
+      <c r="C30" s="548"/>
+      <c r="D30" s="549"/>
+      <c r="E30" s="531" t="str">
         <f>Данные!C17</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F30" s="535"/>
-      <c r="G30" s="538">
+      <c r="F30" s="532"/>
+      <c r="G30" s="535">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="540"/>
-      <c r="I30" s="541"/>
-      <c r="J30" s="542"/>
+      <c r="H30" s="537"/>
+      <c r="I30" s="538"/>
+      <c r="J30" s="539"/>
     </row>
     <row r="31" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="530"/>
-      <c r="B31" s="546" t="str">
+      <c r="B31" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C31" s="547"/>
-      <c r="D31" s="548"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="537"/>
-      <c r="G31" s="539"/>
-      <c r="H31" s="543"/>
-      <c r="I31" s="544"/>
-      <c r="J31" s="545"/>
+      <c r="C31" s="526"/>
+      <c r="D31" s="527"/>
+      <c r="E31" s="550"/>
+      <c r="F31" s="534"/>
+      <c r="G31" s="536"/>
+      <c r="H31" s="540"/>
+      <c r="I31" s="541"/>
+      <c r="J31" s="542"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="529">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="531" t="s">
+      <c r="B32" s="547" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="532"/>
-      <c r="D32" s="533"/>
-      <c r="E32" s="534" t="str">
+      <c r="C32" s="548"/>
+      <c r="D32" s="549"/>
+      <c r="E32" s="531" t="str">
         <f>Данные!C18</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F32" s="535"/>
-      <c r="G32" s="538">
+      <c r="F32" s="532"/>
+      <c r="G32" s="535">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="540"/>
-      <c r="I32" s="541"/>
-      <c r="J32" s="542"/>
+      <c r="H32" s="537"/>
+      <c r="I32" s="538"/>
+      <c r="J32" s="539"/>
     </row>
     <row r="33" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="530"/>
-      <c r="B33" s="546" t="str">
+      <c r="B33" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C33" s="547"/>
-      <c r="D33" s="548"/>
-      <c r="E33" s="536"/>
-      <c r="F33" s="537"/>
-      <c r="G33" s="539"/>
-      <c r="H33" s="543"/>
-      <c r="I33" s="544"/>
-      <c r="J33" s="545"/>
+      <c r="C33" s="526"/>
+      <c r="D33" s="527"/>
+      <c r="E33" s="550"/>
+      <c r="F33" s="534"/>
+      <c r="G33" s="536"/>
+      <c r="H33" s="540"/>
+      <c r="I33" s="541"/>
+      <c r="J33" s="542"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="529">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="531" t="s">
+      <c r="B34" s="547" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="532"/>
-      <c r="D34" s="533"/>
-      <c r="E34" s="534" t="str">
+      <c r="C34" s="548"/>
+      <c r="D34" s="549"/>
+      <c r="E34" s="531" t="str">
         <f>Данные!C19</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F34" s="535"/>
-      <c r="G34" s="538">
+      <c r="F34" s="532"/>
+      <c r="G34" s="535">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="H34" s="540"/>
-      <c r="I34" s="541"/>
-      <c r="J34" s="542"/>
+      <c r="H34" s="537"/>
+      <c r="I34" s="538"/>
+      <c r="J34" s="539"/>
     </row>
     <row r="35" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="530"/>
-      <c r="B35" s="546" t="str">
+      <c r="B35" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C35" s="547"/>
-      <c r="D35" s="548"/>
-      <c r="E35" s="536"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="539"/>
-      <c r="H35" s="543"/>
-      <c r="I35" s="544"/>
-      <c r="J35" s="545"/>
+      <c r="C35" s="526"/>
+      <c r="D35" s="527"/>
+      <c r="E35" s="550"/>
+      <c r="F35" s="534"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="540"/>
+      <c r="I35" s="541"/>
+      <c r="J35" s="542"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="529">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="531" t="s">
+      <c r="B36" s="547" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="532"/>
-      <c r="D36" s="533"/>
-      <c r="E36" s="534" t="str">
+      <c r="C36" s="548"/>
+      <c r="D36" s="549"/>
+      <c r="E36" s="531" t="str">
         <f>Данные!C20</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F36" s="535"/>
-      <c r="G36" s="538">
+      <c r="F36" s="532"/>
+      <c r="G36" s="535">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="540"/>
-      <c r="I36" s="541"/>
-      <c r="J36" s="542"/>
+      <c r="H36" s="537"/>
+      <c r="I36" s="538"/>
+      <c r="J36" s="539"/>
     </row>
     <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="530"/>
-      <c r="B37" s="546" t="str">
+      <c r="B37" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C37" s="547"/>
-      <c r="D37" s="548"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="539"/>
-      <c r="H37" s="543"/>
-      <c r="I37" s="544"/>
-      <c r="J37" s="545"/>
+      <c r="C37" s="526"/>
+      <c r="D37" s="527"/>
+      <c r="E37" s="550"/>
+      <c r="F37" s="534"/>
+      <c r="G37" s="536"/>
+      <c r="H37" s="540"/>
+      <c r="I37" s="541"/>
+      <c r="J37" s="542"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="529">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="531" t="s">
+      <c r="B38" s="547" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="532"/>
-      <c r="D38" s="533"/>
-      <c r="E38" s="534" t="str">
+      <c r="C38" s="548"/>
+      <c r="D38" s="549"/>
+      <c r="E38" s="531" t="str">
         <f>Данные!C21</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F38" s="535"/>
-      <c r="G38" s="538">
+      <c r="F38" s="532"/>
+      <c r="G38" s="535">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="540"/>
-      <c r="I38" s="541"/>
-      <c r="J38" s="542"/>
+      <c r="H38" s="537"/>
+      <c r="I38" s="538"/>
+      <c r="J38" s="539"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="530"/>
-      <c r="B39" s="546" t="str">
+      <c r="B39" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C39" s="547"/>
-      <c r="D39" s="548"/>
-      <c r="E39" s="536"/>
-      <c r="F39" s="537"/>
-      <c r="G39" s="539"/>
-      <c r="H39" s="543"/>
-      <c r="I39" s="544"/>
-      <c r="J39" s="545"/>
+      <c r="C39" s="526"/>
+      <c r="D39" s="527"/>
+      <c r="E39" s="550"/>
+      <c r="F39" s="534"/>
+      <c r="G39" s="536"/>
+      <c r="H39" s="540"/>
+      <c r="I39" s="541"/>
+      <c r="J39" s="542"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="529">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="531" t="s">
+      <c r="B40" s="547" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="532"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="534" t="str">
+      <c r="C40" s="548"/>
+      <c r="D40" s="549"/>
+      <c r="E40" s="531" t="str">
         <f>Данные!C23</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F40" s="535"/>
-      <c r="G40" s="538">
+      <c r="F40" s="532"/>
+      <c r="G40" s="535">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="540"/>
-      <c r="I40" s="541"/>
-      <c r="J40" s="542"/>
+      <c r="H40" s="537"/>
+      <c r="I40" s="538"/>
+      <c r="J40" s="539"/>
     </row>
     <row r="41" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="530"/>
-      <c r="B41" s="546" t="str">
+      <c r="B41" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C41" s="547"/>
-      <c r="D41" s="548"/>
-      <c r="E41" s="536"/>
-      <c r="F41" s="537"/>
-      <c r="G41" s="539"/>
-      <c r="H41" s="543"/>
-      <c r="I41" s="544"/>
-      <c r="J41" s="545"/>
+      <c r="C41" s="526"/>
+      <c r="D41" s="527"/>
+      <c r="E41" s="550"/>
+      <c r="F41" s="534"/>
+      <c r="G41" s="536"/>
+      <c r="H41" s="540"/>
+      <c r="I41" s="541"/>
+      <c r="J41" s="542"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="529">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="531" t="s">
+      <c r="B42" s="547" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="532"/>
-      <c r="D42" s="533"/>
-      <c r="E42" s="534" t="str">
+      <c r="C42" s="548"/>
+      <c r="D42" s="549"/>
+      <c r="E42" s="531" t="str">
         <f>Данные!C26</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F42" s="535"/>
-      <c r="G42" s="538">
+      <c r="F42" s="532"/>
+      <c r="G42" s="535">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H42" s="540"/>
-      <c r="I42" s="541"/>
-      <c r="J42" s="542"/>
+      <c r="H42" s="537"/>
+      <c r="I42" s="538"/>
+      <c r="J42" s="539"/>
     </row>
     <row r="43" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="530"/>
-      <c r="B43" s="546" t="str">
+      <c r="B43" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C43" s="547"/>
-      <c r="D43" s="548"/>
-      <c r="E43" s="536"/>
-      <c r="F43" s="537"/>
-      <c r="G43" s="539"/>
-      <c r="H43" s="543"/>
-      <c r="I43" s="544"/>
-      <c r="J43" s="545"/>
+      <c r="C43" s="526"/>
+      <c r="D43" s="527"/>
+      <c r="E43" s="550"/>
+      <c r="F43" s="534"/>
+      <c r="G43" s="536"/>
+      <c r="H43" s="540"/>
+      <c r="I43" s="541"/>
+      <c r="J43" s="542"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="529">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="531" t="s">
+      <c r="B44" s="547" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="532"/>
-      <c r="D44" s="533"/>
-      <c r="E44" s="534" t="str">
+      <c r="C44" s="548"/>
+      <c r="D44" s="549"/>
+      <c r="E44" s="531" t="str">
         <f>Данные!C27</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F44" s="535"/>
-      <c r="G44" s="538">
+      <c r="F44" s="532"/>
+      <c r="G44" s="535">
         <f>Данные!B27</f>
         <v>20</v>
       </c>
-      <c r="H44" s="540"/>
-      <c r="I44" s="541"/>
-      <c r="J44" s="542"/>
+      <c r="H44" s="537"/>
+      <c r="I44" s="538"/>
+      <c r="J44" s="539"/>
     </row>
     <row r="45" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="530"/>
-      <c r="B45" s="546" t="str">
+      <c r="B45" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C45" s="547"/>
-      <c r="D45" s="548"/>
-      <c r="E45" s="536"/>
-      <c r="F45" s="537"/>
-      <c r="G45" s="539"/>
-      <c r="H45" s="543"/>
-      <c r="I45" s="544"/>
-      <c r="J45" s="545"/>
+      <c r="C45" s="526"/>
+      <c r="D45" s="527"/>
+      <c r="E45" s="550"/>
+      <c r="F45" s="534"/>
+      <c r="G45" s="536"/>
+      <c r="H45" s="540"/>
+      <c r="I45" s="541"/>
+      <c r="J45" s="542"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="529">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="531" t="s">
+      <c r="B46" s="547" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="532"/>
-      <c r="D46" s="533"/>
-      <c r="E46" s="534" t="str">
+      <c r="C46" s="548"/>
+      <c r="D46" s="549"/>
+      <c r="E46" s="531" t="str">
         <f>Данные!C24</f>
         <v>Mytaya 0,5 L</v>
       </c>
-      <c r="F46" s="535"/>
-      <c r="G46" s="538">
+      <c r="F46" s="532"/>
+      <c r="G46" s="535">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="540"/>
-      <c r="I46" s="541"/>
-      <c r="J46" s="542"/>
+      <c r="H46" s="537"/>
+      <c r="I46" s="538"/>
+      <c r="J46" s="539"/>
     </row>
     <row r="47" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="530"/>
-      <c r="B47" s="546" t="str">
+      <c r="B47" s="525" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-КПМ-30-1-500-4 АКВА МЯТАЯ)</v>
       </c>
-      <c r="C47" s="547"/>
-      <c r="D47" s="548"/>
-      <c r="E47" s="536"/>
-      <c r="F47" s="537"/>
-      <c r="G47" s="539"/>
-      <c r="H47" s="543"/>
-      <c r="I47" s="544"/>
-      <c r="J47" s="545"/>
+      <c r="C47" s="526"/>
+      <c r="D47" s="527"/>
+      <c r="E47" s="550"/>
+      <c r="F47" s="534"/>
+      <c r="G47" s="536"/>
+      <c r="H47" s="540"/>
+      <c r="I47" s="541"/>
+      <c r="J47" s="542"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11435,6 +11437,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11451,70 +11517,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11569,47 +11571,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11620,9 +11622,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11641,22 +11643,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11667,22 +11669,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11693,27 +11695,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="557"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="560"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12203,12 +12205,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="596" t="s">
+      <c r="B23" s="551" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="597"/>
-      <c r="D23" s="597"/>
-      <c r="E23" s="598"/>
+      <c r="C23" s="552"/>
+      <c r="D23" s="552"/>
+      <c r="E23" s="553"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12230,12 +12232,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="586" t="s">
+      <c r="B24" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="587"/>
-      <c r="D24" s="587"/>
-      <c r="E24" s="588"/>
+      <c r="C24" s="590"/>
+      <c r="D24" s="590"/>
+      <c r="E24" s="591"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12278,35 +12280,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="561" t="s">
+      <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="561"/>
-      <c r="M27" s="561"/>
+      <c r="L27" s="564"/>
+      <c r="M27" s="564"/>
       <c r="N27" s="472"/>
       <c r="O27" s="472"/>
       <c r="P27" s="488"/>
       <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="558" t="s">
+      <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="558"/>
-      <c r="P28" s="559" t="s">
+      <c r="O28" s="561"/>
+      <c r="P28" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="560"/>
+      <c r="Q28" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12323,6 +12318,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12388,50 +12390,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610">
+      <c r="B2" s="600">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12442,9 +12444,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12463,22 +12465,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12489,22 +12491,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12515,27 +12517,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12726,12 +12728,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="634" t="s">
+      <c r="B14" s="598" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="635"/>
-      <c r="D14" s="635"/>
-      <c r="E14" s="635"/>
+      <c r="C14" s="599"/>
+      <c r="D14" s="599"/>
+      <c r="E14" s="599"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12753,13 +12755,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="596" t="s">
+      <c r="B15" s="551" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="597"/>
-      <c r="D15" s="597"/>
-      <c r="E15" s="597"/>
-      <c r="F15" s="633"/>
+      <c r="C15" s="552"/>
+      <c r="D15" s="552"/>
+      <c r="E15" s="552"/>
+      <c r="F15" s="597"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12778,12 +12780,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="591"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12830,39 +12832,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="561" t="s">
+      <c r="L19" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="561"/>
-      <c r="N19" s="561"/>
+      <c r="M19" s="564"/>
+      <c r="N19" s="564"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12876,6 +12867,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12949,47 +12951,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13000,9 +13002,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13021,22 +13023,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13047,22 +13049,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13073,27 +13075,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="557"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="560"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13573,28 +13575,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="636" t="s">
+      <c r="L23" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="636"/>
-      <c r="N23" s="636"/>
+      <c r="M23" s="629"/>
+      <c r="N23" s="629"/>
       <c r="O23" s="472"/>
       <c r="P23" s="472"/>
       <c r="Q23" s="488"/>
       <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="558" t="s">
+      <c r="O24" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="558"/>
-      <c r="Q24" s="559" t="s">
+      <c r="P24" s="561"/>
+      <c r="Q24" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="560"/>
+      <c r="R24" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13609,13 +13618,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13683,47 +13685,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13734,9 +13736,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13755,22 +13757,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="591"/>
-      <c r="J5" s="592"/>
-      <c r="K5" s="515"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13781,22 +13783,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="591"/>
-      <c r="J6" s="592"/>
-      <c r="K6" s="515"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="506"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13807,27 +13809,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="600"/>
-      <c r="D7" s="517">
+      <c r="C7" s="557"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="599" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="603"/>
-      <c r="K7" s="505">
+      <c r="J7" s="560"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14111,28 +14113,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="636" t="s">
+      <c r="L18" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="636"/>
-      <c r="N18" s="636"/>
+      <c r="M18" s="629"/>
+      <c r="N18" s="629"/>
       <c r="O18" s="472"/>
       <c r="P18" s="472"/>
       <c r="Q18" s="488"/>
       <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
+      <c r="P19" s="561"/>
+      <c r="Q19" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14148,12 +14156,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14225,60 +14227,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="630"/>
-      <c r="M2" s="638"/>
-      <c r="N2" s="639"/>
-      <c r="O2" s="639"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
-      <c r="R2" s="640"/>
+      <c r="L2" s="620"/>
+      <c r="M2" s="631"/>
+      <c r="N2" s="632"/>
+      <c r="O2" s="632"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
+      <c r="R2" s="633"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
-      <c r="M3" s="641"/>
-      <c r="N3" s="642"/>
-      <c r="O3" s="642"/>
-      <c r="P3" s="642"/>
-      <c r="Q3" s="642"/>
-      <c r="R3" s="643"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
+      <c r="M3" s="634"/>
+      <c r="N3" s="635"/>
+      <c r="O3" s="635"/>
+      <c r="P3" s="635"/>
+      <c r="Q3" s="635"/>
+      <c r="R3" s="636"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14287,95 +14289,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="641"/>
-      <c r="N4" s="642"/>
-      <c r="O4" s="642"/>
-      <c r="P4" s="642"/>
-      <c r="Q4" s="642"/>
-      <c r="R4" s="643"/>
+      <c r="M4" s="634"/>
+      <c r="N4" s="635"/>
+      <c r="O4" s="635"/>
+      <c r="P4" s="635"/>
+      <c r="Q4" s="635"/>
+      <c r="R4" s="636"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
-      <c r="M5" s="641"/>
-      <c r="N5" s="642"/>
-      <c r="O5" s="642"/>
-      <c r="P5" s="642"/>
-      <c r="Q5" s="642"/>
-      <c r="R5" s="643"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
+      <c r="M5" s="634"/>
+      <c r="N5" s="635"/>
+      <c r="O5" s="635"/>
+      <c r="P5" s="635"/>
+      <c r="Q5" s="635"/>
+      <c r="R5" s="636"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
-      <c r="M6" s="641"/>
-      <c r="N6" s="642"/>
-      <c r="O6" s="642"/>
-      <c r="P6" s="642"/>
-      <c r="Q6" s="642"/>
-      <c r="R6" s="643"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
+      <c r="M6" s="634"/>
+      <c r="N6" s="635"/>
+      <c r="O6" s="635"/>
+      <c r="P6" s="635"/>
+      <c r="Q6" s="635"/>
+      <c r="R6" s="636"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
-      <c r="M7" s="641"/>
-      <c r="N7" s="642"/>
-      <c r="O7" s="642"/>
-      <c r="P7" s="642"/>
-      <c r="Q7" s="642"/>
-      <c r="R7" s="643"/>
+      <c r="L7" s="497"/>
+      <c r="M7" s="634"/>
+      <c r="N7" s="635"/>
+      <c r="O7" s="635"/>
+      <c r="P7" s="635"/>
+      <c r="Q7" s="635"/>
+      <c r="R7" s="636"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14789,12 +14791,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="586" t="s">
+      <c r="B21" s="589" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="587"/>
-      <c r="D21" s="587"/>
-      <c r="E21" s="588"/>
+      <c r="C21" s="590"/>
+      <c r="D21" s="590"/>
+      <c r="E21" s="591"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14839,34 +14841,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="636" t="s">
+      <c r="L24" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M24" s="636"/>
-      <c r="N24" s="636"/>
+      <c r="M24" s="629"/>
+      <c r="N24" s="629"/>
       <c r="O24" s="472"/>
       <c r="P24" s="472"/>
       <c r="Q24" s="488"/>
       <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="558" t="s">
+      <c r="O25" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="558"/>
-      <c r="Q25" s="559" t="s">
+      <c r="P25" s="561"/>
+      <c r="Q25" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R25" s="560"/>
+      <c r="R25" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14883,6 +14879,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14947,47 +14949,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="610"/>
-      <c r="C2" s="611"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="619" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="620"/>
-      <c r="G2" s="620"/>
-      <c r="H2" s="621"/>
-      <c r="I2" s="625" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="626"/>
-      <c r="K2" s="629">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B19</f>
         <v>70</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="613"/>
-      <c r="C3" s="614"/>
-      <c r="D3" s="615"/>
-      <c r="E3" s="622" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="623"/>
-      <c r="G3" s="623"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="627"/>
-      <c r="J3" s="628"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14998,9 +15000,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="616"/>
-      <c r="C4" s="617"/>
-      <c r="D4" s="618"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15019,22 +15021,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="514" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="505" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="515"/>
-      <c r="F5" s="515"/>
-      <c r="G5" s="515"/>
-      <c r="H5" s="516"/>
-      <c r="I5" s="605"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="516"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
+      <c r="H5" s="507"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="507"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15045,22 +15047,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="604"/>
-      <c r="D6" s="508" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="499" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="605"/>
-      <c r="J6" s="606"/>
-      <c r="K6" s="607"/>
-      <c r="L6" s="516"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="507"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15071,27 +15073,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="599" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="608"/>
-      <c r="D7" s="517">
+      <c r="C7" s="627"/>
+      <c r="D7" s="508">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="601"/>
-      <c r="F7" s="601"/>
-      <c r="G7" s="601"/>
-      <c r="H7" s="602"/>
-      <c r="I7" s="609" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="608"/>
-      <c r="K7" s="505">
+      <c r="J7" s="627"/>
+      <c r="K7" s="496">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="506"/>
+      <c r="L7" s="497"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15342,12 +15344,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="589" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="591"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15392,38 +15394,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="636" t="s">
+      <c r="L19" s="629" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="636"/>
-      <c r="N19" s="636"/>
+      <c r="M19" s="629"/>
+      <c r="N19" s="629"/>
       <c r="O19" s="472"/>
       <c r="P19" s="472"/>
       <c r="Q19" s="488"/>
       <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15436,6 +15428,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
